--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -12,16 +12,18 @@
     <sheet name="Instructivo" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Historias de Usuario'!$A$1:$I$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Historias de Usuario'!$A$1:$I$38</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Instructivo!$A$1:$D$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0" vbProcedure="false">'Historias de Usuario'!$A$1:$I$30</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0_0" vbProcedure="false">'Historias de Usuario'!$A$1:$I$30</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0_0_0" vbProcedure="false">'Historias de Usuario'!$A$1:$I$30</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Historias de Usuario'!$A$1:$I$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0" vbProcedure="false">'Historias de Usuario'!$A$1:$I$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0_0" vbProcedure="false">'Historias de Usuario'!$A$1:$I$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0_0_0" vbProcedure="false">'Historias de Usuario'!$A$1:$I$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Historias de Usuario'!$A$1:$I$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">'Historias de Usuario'!$A$1:$I$38</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Print_Area_0" vbProcedure="false">Instructivo!$A$1:$D$15</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Print_Area_0_0" vbProcedure="false">Instructivo!$A$1:$D$15</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Print_Area_0_0_0" vbProcedure="false">Instructivo!$A$1:$D$15</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Instructivo!$A$1:$D$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">Instructivo!$A$1:$D$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
   <si>
     <t xml:space="preserve">Desarrollo ágil: Pila de Producto (Product Backlog)</t>
   </si>
@@ -48,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tania Mabel Leguizamón Ovelar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERSION 1</t>
   </si>
   <si>
     <t xml:space="preserve">Identificador (ID) de la Historia</t>
@@ -218,16 +223,7 @@
     <t xml:space="preserve">Permite cerrar las sesiones para mantener a salvo los datos confidenciales de un usuario.</t>
   </si>
   <si>
-    <t xml:space="preserve">00-0000-0009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como Usuario necesito modificar la contraseña para asegurar la cuenta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificación de contraseña.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite al usuario manejar una propia contraseña independientemente de la que se ha asignado.</t>
+    <t xml:space="preserve">VERSION 2</t>
   </si>
   <si>
     <t xml:space="preserve">00-0000-0010</t>
@@ -369,6 +365,9 @@
     <t xml:space="preserve">Permite alterar las fechas de los sprint para una mejor estimaciòn del mismo.</t>
   </si>
   <si>
+    <t xml:space="preserve">VERSION 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">00-0000-0020</t>
   </si>
   <si>
@@ -470,7 +469,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -512,6 +511,14 @@
       <b val="true"/>
       <sz val="16"/>
       <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -561,26 +568,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF1F497D"/>
         <bgColor rgb="FF003366"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor rgb="FF99FF99"/>
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99FF99"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -660,7 +667,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -717,7 +724,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -725,12 +756,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -741,31 +772,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -793,11 +816,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -826,7 +849,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -858,7 +881,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF99FF99"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -891,23 +914,23 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:30"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="109.048582995951"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="103.582995951417"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="110.012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="104.441295546559"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.4615384615385"/>
   </cols>
   <sheetData>
@@ -7077,630 +7100,3690 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="2" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14" t="s">
+    <row r="7" customFormat="false" ht="36.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="0"/>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+      <c r="BA7" s="0"/>
+      <c r="BB7" s="0"/>
+      <c r="BC7" s="0"/>
+      <c r="BD7" s="0"/>
+      <c r="BE7" s="0"/>
+      <c r="BF7" s="0"/>
+      <c r="BG7" s="0"/>
+      <c r="BH7" s="0"/>
+      <c r="BI7" s="0"/>
+      <c r="BJ7" s="0"/>
+      <c r="BK7" s="0"/>
+      <c r="BL7" s="0"/>
+      <c r="BM7" s="0"/>
+      <c r="BN7" s="0"/>
+      <c r="BO7" s="0"/>
+      <c r="BP7" s="0"/>
+      <c r="BQ7" s="0"/>
+      <c r="BR7" s="0"/>
+      <c r="BS7" s="0"/>
+      <c r="BT7" s="0"/>
+      <c r="BU7" s="0"/>
+      <c r="BV7" s="0"/>
+      <c r="BW7" s="0"/>
+      <c r="BX7" s="0"/>
+      <c r="BY7" s="0"/>
+      <c r="BZ7" s="0"/>
+      <c r="CA7" s="0"/>
+      <c r="CB7" s="0"/>
+      <c r="CC7" s="0"/>
+      <c r="CD7" s="0"/>
+      <c r="CE7" s="0"/>
+      <c r="CF7" s="0"/>
+      <c r="CG7" s="0"/>
+      <c r="CH7" s="0"/>
+      <c r="CI7" s="0"/>
+      <c r="CJ7" s="0"/>
+      <c r="CK7" s="0"/>
+      <c r="CL7" s="0"/>
+      <c r="CM7" s="0"/>
+      <c r="CN7" s="0"/>
+      <c r="CO7" s="0"/>
+      <c r="CP7" s="0"/>
+      <c r="CQ7" s="0"/>
+      <c r="CR7" s="0"/>
+      <c r="CS7" s="0"/>
+      <c r="CT7" s="0"/>
+      <c r="CU7" s="0"/>
+      <c r="CV7" s="0"/>
+      <c r="CW7" s="0"/>
+      <c r="CX7" s="0"/>
+      <c r="CY7" s="0"/>
+      <c r="CZ7" s="0"/>
+      <c r="DA7" s="0"/>
+      <c r="DB7" s="0"/>
+      <c r="DC7" s="0"/>
+      <c r="DD7" s="0"/>
+      <c r="DE7" s="0"/>
+      <c r="DF7" s="0"/>
+      <c r="DG7" s="0"/>
+      <c r="DH7" s="0"/>
+      <c r="DI7" s="0"/>
+      <c r="DJ7" s="0"/>
+      <c r="DK7" s="0"/>
+      <c r="DL7" s="0"/>
+      <c r="DM7" s="0"/>
+      <c r="DN7" s="0"/>
+      <c r="DO7" s="0"/>
+      <c r="DP7" s="0"/>
+      <c r="DQ7" s="0"/>
+      <c r="DR7" s="0"/>
+      <c r="DS7" s="0"/>
+      <c r="DT7" s="0"/>
+      <c r="DU7" s="0"/>
+      <c r="DV7" s="0"/>
+      <c r="DW7" s="0"/>
+      <c r="DX7" s="0"/>
+      <c r="DY7" s="0"/>
+      <c r="DZ7" s="0"/>
+      <c r="EA7" s="0"/>
+      <c r="EB7" s="0"/>
+      <c r="EC7" s="0"/>
+      <c r="ED7" s="0"/>
+      <c r="EE7" s="0"/>
+      <c r="EF7" s="0"/>
+      <c r="EG7" s="0"/>
+      <c r="EH7" s="0"/>
+      <c r="EI7" s="0"/>
+      <c r="EJ7" s="0"/>
+      <c r="EK7" s="0"/>
+      <c r="EL7" s="0"/>
+      <c r="EM7" s="0"/>
+      <c r="EN7" s="0"/>
+      <c r="EO7" s="0"/>
+      <c r="EP7" s="0"/>
+      <c r="EQ7" s="0"/>
+      <c r="ER7" s="0"/>
+      <c r="ES7" s="0"/>
+      <c r="ET7" s="0"/>
+      <c r="EU7" s="0"/>
+      <c r="EV7" s="0"/>
+      <c r="EW7" s="0"/>
+      <c r="EX7" s="0"/>
+      <c r="EY7" s="0"/>
+      <c r="EZ7" s="0"/>
+      <c r="FA7" s="0"/>
+      <c r="FB7" s="0"/>
+      <c r="FC7" s="0"/>
+      <c r="FD7" s="0"/>
+      <c r="FE7" s="0"/>
+      <c r="FF7" s="0"/>
+      <c r="FG7" s="0"/>
+      <c r="FH7" s="0"/>
+      <c r="FI7" s="0"/>
+      <c r="FJ7" s="0"/>
+      <c r="FK7" s="0"/>
+      <c r="FL7" s="0"/>
+      <c r="FM7" s="0"/>
+      <c r="FN7" s="0"/>
+      <c r="FO7" s="0"/>
+      <c r="FP7" s="0"/>
+      <c r="FQ7" s="0"/>
+      <c r="FR7" s="0"/>
+      <c r="FS7" s="0"/>
+      <c r="FT7" s="0"/>
+      <c r="FU7" s="0"/>
+      <c r="FV7" s="0"/>
+      <c r="FW7" s="0"/>
+      <c r="FX7" s="0"/>
+      <c r="FY7" s="0"/>
+      <c r="FZ7" s="0"/>
+      <c r="GA7" s="0"/>
+      <c r="GB7" s="0"/>
+      <c r="GC7" s="0"/>
+      <c r="GD7" s="0"/>
+      <c r="GE7" s="0"/>
+      <c r="GF7" s="0"/>
+      <c r="GG7" s="0"/>
+      <c r="GH7" s="0"/>
+      <c r="GI7" s="0"/>
+      <c r="GJ7" s="0"/>
+      <c r="GK7" s="0"/>
+      <c r="GL7" s="0"/>
+      <c r="GM7" s="0"/>
+      <c r="GN7" s="0"/>
+      <c r="GO7" s="0"/>
+      <c r="GP7" s="0"/>
+      <c r="GQ7" s="0"/>
+      <c r="GR7" s="0"/>
+      <c r="GS7" s="0"/>
+      <c r="GT7" s="0"/>
+      <c r="GU7" s="0"/>
+      <c r="GV7" s="0"/>
+      <c r="GW7" s="0"/>
+      <c r="GX7" s="0"/>
+      <c r="GY7" s="0"/>
+      <c r="GZ7" s="0"/>
+      <c r="HA7" s="0"/>
+      <c r="HB7" s="0"/>
+      <c r="HC7" s="0"/>
+      <c r="HD7" s="0"/>
+      <c r="HE7" s="0"/>
+      <c r="HF7" s="0"/>
+      <c r="HG7" s="0"/>
+      <c r="HH7" s="0"/>
+      <c r="HI7" s="0"/>
+      <c r="HJ7" s="0"/>
+      <c r="HK7" s="0"/>
+      <c r="HL7" s="0"/>
+      <c r="HM7" s="0"/>
+      <c r="HN7" s="0"/>
+      <c r="HO7" s="0"/>
+      <c r="HP7" s="0"/>
+      <c r="HQ7" s="0"/>
+      <c r="HR7" s="0"/>
+      <c r="HS7" s="0"/>
+      <c r="HT7" s="0"/>
+      <c r="HU7" s="0"/>
+      <c r="HV7" s="0"/>
+      <c r="HW7" s="0"/>
+      <c r="HX7" s="0"/>
+      <c r="HY7" s="0"/>
+      <c r="HZ7" s="0"/>
+      <c r="IA7" s="0"/>
+      <c r="IB7" s="0"/>
+      <c r="IC7" s="0"/>
+      <c r="ID7" s="0"/>
+      <c r="IE7" s="0"/>
+      <c r="IF7" s="0"/>
+      <c r="IG7" s="0"/>
+      <c r="IH7" s="0"/>
+      <c r="II7" s="0"/>
+      <c r="IJ7" s="0"/>
+      <c r="IK7" s="0"/>
+      <c r="IL7" s="0"/>
+      <c r="IM7" s="0"/>
+      <c r="IN7" s="0"/>
+      <c r="IO7" s="0"/>
+      <c r="IP7" s="0"/>
+      <c r="IQ7" s="0"/>
+      <c r="IR7" s="0"/>
+      <c r="IS7" s="0"/>
+      <c r="IT7" s="0"/>
+      <c r="IU7" s="0"/>
+      <c r="IV7" s="0"/>
+      <c r="IW7" s="0"/>
+      <c r="IX7" s="0"/>
+      <c r="IY7" s="0"/>
+      <c r="IZ7" s="0"/>
+      <c r="JA7" s="0"/>
+      <c r="JB7" s="0"/>
+      <c r="JC7" s="0"/>
+      <c r="JD7" s="0"/>
+      <c r="JE7" s="0"/>
+      <c r="JF7" s="0"/>
+      <c r="JG7" s="0"/>
+      <c r="JH7" s="0"/>
+      <c r="JI7" s="0"/>
+      <c r="JJ7" s="0"/>
+      <c r="JK7" s="0"/>
+      <c r="JL7" s="0"/>
+      <c r="JM7" s="0"/>
+      <c r="JN7" s="0"/>
+      <c r="JO7" s="0"/>
+      <c r="JP7" s="0"/>
+      <c r="JQ7" s="0"/>
+      <c r="JR7" s="0"/>
+      <c r="JS7" s="0"/>
+      <c r="JT7" s="0"/>
+      <c r="JU7" s="0"/>
+      <c r="JV7" s="0"/>
+      <c r="JW7" s="0"/>
+      <c r="JX7" s="0"/>
+      <c r="JY7" s="0"/>
+      <c r="JZ7" s="0"/>
+      <c r="KA7" s="0"/>
+      <c r="KB7" s="0"/>
+      <c r="KC7" s="0"/>
+      <c r="KD7" s="0"/>
+      <c r="KE7" s="0"/>
+      <c r="KF7" s="0"/>
+      <c r="KG7" s="0"/>
+      <c r="KH7" s="0"/>
+      <c r="KI7" s="0"/>
+      <c r="KJ7" s="0"/>
+      <c r="KK7" s="0"/>
+      <c r="KL7" s="0"/>
+      <c r="KM7" s="0"/>
+      <c r="KN7" s="0"/>
+      <c r="KO7" s="0"/>
+      <c r="KP7" s="0"/>
+      <c r="KQ7" s="0"/>
+      <c r="KR7" s="0"/>
+      <c r="KS7" s="0"/>
+      <c r="KT7" s="0"/>
+      <c r="KU7" s="0"/>
+      <c r="KV7" s="0"/>
+      <c r="KW7" s="0"/>
+      <c r="KX7" s="0"/>
+      <c r="KY7" s="0"/>
+      <c r="KZ7" s="0"/>
+      <c r="LA7" s="0"/>
+      <c r="LB7" s="0"/>
+      <c r="LC7" s="0"/>
+      <c r="LD7" s="0"/>
+      <c r="LE7" s="0"/>
+      <c r="LF7" s="0"/>
+      <c r="LG7" s="0"/>
+      <c r="LH7" s="0"/>
+      <c r="LI7" s="0"/>
+      <c r="LJ7" s="0"/>
+      <c r="LK7" s="0"/>
+      <c r="LL7" s="0"/>
+      <c r="LM7" s="0"/>
+      <c r="LN7" s="0"/>
+      <c r="LO7" s="0"/>
+      <c r="LP7" s="0"/>
+      <c r="LQ7" s="0"/>
+      <c r="LR7" s="0"/>
+      <c r="LS7" s="0"/>
+      <c r="LT7" s="0"/>
+      <c r="LU7" s="0"/>
+      <c r="LV7" s="0"/>
+      <c r="LW7" s="0"/>
+      <c r="LX7" s="0"/>
+      <c r="LY7" s="0"/>
+      <c r="LZ7" s="0"/>
+      <c r="MA7" s="0"/>
+      <c r="MB7" s="0"/>
+      <c r="MC7" s="0"/>
+      <c r="MD7" s="0"/>
+      <c r="ME7" s="0"/>
+      <c r="MF7" s="0"/>
+      <c r="MG7" s="0"/>
+      <c r="MH7" s="0"/>
+      <c r="MI7" s="0"/>
+      <c r="MJ7" s="0"/>
+      <c r="MK7" s="0"/>
+      <c r="ML7" s="0"/>
+      <c r="MM7" s="0"/>
+      <c r="MN7" s="0"/>
+      <c r="MO7" s="0"/>
+      <c r="MP7" s="0"/>
+      <c r="MQ7" s="0"/>
+      <c r="MR7" s="0"/>
+      <c r="MS7" s="0"/>
+      <c r="MT7" s="0"/>
+      <c r="MU7" s="0"/>
+      <c r="MV7" s="0"/>
+      <c r="MW7" s="0"/>
+      <c r="MX7" s="0"/>
+      <c r="MY7" s="0"/>
+      <c r="MZ7" s="0"/>
+      <c r="NA7" s="0"/>
+      <c r="NB7" s="0"/>
+      <c r="NC7" s="0"/>
+      <c r="ND7" s="0"/>
+      <c r="NE7" s="0"/>
+      <c r="NF7" s="0"/>
+      <c r="NG7" s="0"/>
+      <c r="NH7" s="0"/>
+      <c r="NI7" s="0"/>
+      <c r="NJ7" s="0"/>
+      <c r="NK7" s="0"/>
+      <c r="NL7" s="0"/>
+      <c r="NM7" s="0"/>
+      <c r="NN7" s="0"/>
+      <c r="NO7" s="0"/>
+      <c r="NP7" s="0"/>
+      <c r="NQ7" s="0"/>
+      <c r="NR7" s="0"/>
+      <c r="NS7" s="0"/>
+      <c r="NT7" s="0"/>
+      <c r="NU7" s="0"/>
+      <c r="NV7" s="0"/>
+      <c r="NW7" s="0"/>
+      <c r="NX7" s="0"/>
+      <c r="NY7" s="0"/>
+      <c r="NZ7" s="0"/>
+      <c r="OA7" s="0"/>
+      <c r="OB7" s="0"/>
+      <c r="OC7" s="0"/>
+      <c r="OD7" s="0"/>
+      <c r="OE7" s="0"/>
+      <c r="OF7" s="0"/>
+      <c r="OG7" s="0"/>
+      <c r="OH7" s="0"/>
+      <c r="OI7" s="0"/>
+      <c r="OJ7" s="0"/>
+      <c r="OK7" s="0"/>
+      <c r="OL7" s="0"/>
+      <c r="OM7" s="0"/>
+      <c r="ON7" s="0"/>
+      <c r="OO7" s="0"/>
+      <c r="OP7" s="0"/>
+      <c r="OQ7" s="0"/>
+      <c r="OR7" s="0"/>
+      <c r="OS7" s="0"/>
+      <c r="OT7" s="0"/>
+      <c r="OU7" s="0"/>
+      <c r="OV7" s="0"/>
+      <c r="OW7" s="0"/>
+      <c r="OX7" s="0"/>
+      <c r="OY7" s="0"/>
+      <c r="OZ7" s="0"/>
+      <c r="PA7" s="0"/>
+      <c r="PB7" s="0"/>
+      <c r="PC7" s="0"/>
+      <c r="PD7" s="0"/>
+      <c r="PE7" s="0"/>
+      <c r="PF7" s="0"/>
+      <c r="PG7" s="0"/>
+      <c r="PH7" s="0"/>
+      <c r="PI7" s="0"/>
+      <c r="PJ7" s="0"/>
+      <c r="PK7" s="0"/>
+      <c r="PL7" s="0"/>
+      <c r="PM7" s="0"/>
+      <c r="PN7" s="0"/>
+      <c r="PO7" s="0"/>
+      <c r="PP7" s="0"/>
+      <c r="PQ7" s="0"/>
+      <c r="PR7" s="0"/>
+      <c r="PS7" s="0"/>
+      <c r="PT7" s="0"/>
+      <c r="PU7" s="0"/>
+      <c r="PV7" s="0"/>
+      <c r="PW7" s="0"/>
+      <c r="PX7" s="0"/>
+      <c r="PY7" s="0"/>
+      <c r="PZ7" s="0"/>
+      <c r="QA7" s="0"/>
+      <c r="QB7" s="0"/>
+      <c r="QC7" s="0"/>
+      <c r="QD7" s="0"/>
+      <c r="QE7" s="0"/>
+      <c r="QF7" s="0"/>
+      <c r="QG7" s="0"/>
+      <c r="QH7" s="0"/>
+      <c r="QI7" s="0"/>
+      <c r="QJ7" s="0"/>
+      <c r="QK7" s="0"/>
+      <c r="QL7" s="0"/>
+      <c r="QM7" s="0"/>
+      <c r="QN7" s="0"/>
+      <c r="QO7" s="0"/>
+      <c r="QP7" s="0"/>
+      <c r="QQ7" s="0"/>
+      <c r="QR7" s="0"/>
+      <c r="QS7" s="0"/>
+      <c r="QT7" s="0"/>
+      <c r="QU7" s="0"/>
+      <c r="QV7" s="0"/>
+      <c r="QW7" s="0"/>
+      <c r="QX7" s="0"/>
+      <c r="QY7" s="0"/>
+      <c r="QZ7" s="0"/>
+      <c r="RA7" s="0"/>
+      <c r="RB7" s="0"/>
+      <c r="RC7" s="0"/>
+      <c r="RD7" s="0"/>
+      <c r="RE7" s="0"/>
+      <c r="RF7" s="0"/>
+      <c r="RG7" s="0"/>
+      <c r="RH7" s="0"/>
+      <c r="RI7" s="0"/>
+      <c r="RJ7" s="0"/>
+      <c r="RK7" s="0"/>
+      <c r="RL7" s="0"/>
+      <c r="RM7" s="0"/>
+      <c r="RN7" s="0"/>
+      <c r="RO7" s="0"/>
+      <c r="RP7" s="0"/>
+      <c r="RQ7" s="0"/>
+      <c r="RR7" s="0"/>
+      <c r="RS7" s="0"/>
+      <c r="RT7" s="0"/>
+      <c r="RU7" s="0"/>
+      <c r="RV7" s="0"/>
+      <c r="RW7" s="0"/>
+      <c r="RX7" s="0"/>
+      <c r="RY7" s="0"/>
+      <c r="RZ7" s="0"/>
+      <c r="SA7" s="0"/>
+      <c r="SB7" s="0"/>
+      <c r="SC7" s="0"/>
+      <c r="SD7" s="0"/>
+      <c r="SE7" s="0"/>
+      <c r="SF7" s="0"/>
+      <c r="SG7" s="0"/>
+      <c r="SH7" s="0"/>
+      <c r="SI7" s="0"/>
+      <c r="SJ7" s="0"/>
+      <c r="SK7" s="0"/>
+      <c r="SL7" s="0"/>
+      <c r="SM7" s="0"/>
+      <c r="SN7" s="0"/>
+      <c r="SO7" s="0"/>
+      <c r="SP7" s="0"/>
+      <c r="SQ7" s="0"/>
+      <c r="SR7" s="0"/>
+      <c r="SS7" s="0"/>
+      <c r="ST7" s="0"/>
+      <c r="SU7" s="0"/>
+      <c r="SV7" s="0"/>
+      <c r="SW7" s="0"/>
+      <c r="SX7" s="0"/>
+      <c r="SY7" s="0"/>
+      <c r="SZ7" s="0"/>
+      <c r="TA7" s="0"/>
+      <c r="TB7" s="0"/>
+      <c r="TC7" s="0"/>
+      <c r="TD7" s="0"/>
+      <c r="TE7" s="0"/>
+      <c r="TF7" s="0"/>
+      <c r="TG7" s="0"/>
+      <c r="TH7" s="0"/>
+      <c r="TI7" s="0"/>
+      <c r="TJ7" s="0"/>
+      <c r="TK7" s="0"/>
+      <c r="TL7" s="0"/>
+      <c r="TM7" s="0"/>
+      <c r="TN7" s="0"/>
+      <c r="TO7" s="0"/>
+      <c r="TP7" s="0"/>
+      <c r="TQ7" s="0"/>
+      <c r="TR7" s="0"/>
+      <c r="TS7" s="0"/>
+      <c r="TT7" s="0"/>
+      <c r="TU7" s="0"/>
+      <c r="TV7" s="0"/>
+      <c r="TW7" s="0"/>
+      <c r="TX7" s="0"/>
+      <c r="TY7" s="0"/>
+      <c r="TZ7" s="0"/>
+      <c r="UA7" s="0"/>
+      <c r="UB7" s="0"/>
+      <c r="UC7" s="0"/>
+      <c r="UD7" s="0"/>
+      <c r="UE7" s="0"/>
+      <c r="UF7" s="0"/>
+      <c r="UG7" s="0"/>
+      <c r="UH7" s="0"/>
+      <c r="UI7" s="0"/>
+      <c r="UJ7" s="0"/>
+      <c r="UK7" s="0"/>
+      <c r="UL7" s="0"/>
+      <c r="UM7" s="0"/>
+      <c r="UN7" s="0"/>
+      <c r="UO7" s="0"/>
+      <c r="UP7" s="0"/>
+      <c r="UQ7" s="0"/>
+      <c r="UR7" s="0"/>
+      <c r="US7" s="0"/>
+      <c r="UT7" s="0"/>
+      <c r="UU7" s="0"/>
+      <c r="UV7" s="0"/>
+      <c r="UW7" s="0"/>
+      <c r="UX7" s="0"/>
+      <c r="UY7" s="0"/>
+      <c r="UZ7" s="0"/>
+      <c r="VA7" s="0"/>
+      <c r="VB7" s="0"/>
+      <c r="VC7" s="0"/>
+      <c r="VD7" s="0"/>
+      <c r="VE7" s="0"/>
+      <c r="VF7" s="0"/>
+      <c r="VG7" s="0"/>
+      <c r="VH7" s="0"/>
+      <c r="VI7" s="0"/>
+      <c r="VJ7" s="0"/>
+      <c r="VK7" s="0"/>
+      <c r="VL7" s="0"/>
+      <c r="VM7" s="0"/>
+      <c r="VN7" s="0"/>
+      <c r="VO7" s="0"/>
+      <c r="VP7" s="0"/>
+      <c r="VQ7" s="0"/>
+      <c r="VR7" s="0"/>
+      <c r="VS7" s="0"/>
+      <c r="VT7" s="0"/>
+      <c r="VU7" s="0"/>
+      <c r="VV7" s="0"/>
+      <c r="VW7" s="0"/>
+      <c r="VX7" s="0"/>
+      <c r="VY7" s="0"/>
+      <c r="VZ7" s="0"/>
+      <c r="WA7" s="0"/>
+      <c r="WB7" s="0"/>
+      <c r="WC7" s="0"/>
+      <c r="WD7" s="0"/>
+      <c r="WE7" s="0"/>
+      <c r="WF7" s="0"/>
+      <c r="WG7" s="0"/>
+      <c r="WH7" s="0"/>
+      <c r="WI7" s="0"/>
+      <c r="WJ7" s="0"/>
+      <c r="WK7" s="0"/>
+      <c r="WL7" s="0"/>
+      <c r="WM7" s="0"/>
+      <c r="WN7" s="0"/>
+      <c r="WO7" s="0"/>
+      <c r="WP7" s="0"/>
+      <c r="WQ7" s="0"/>
+      <c r="WR7" s="0"/>
+      <c r="WS7" s="0"/>
+      <c r="WT7" s="0"/>
+      <c r="WU7" s="0"/>
+      <c r="WV7" s="0"/>
+      <c r="WW7" s="0"/>
+      <c r="WX7" s="0"/>
+      <c r="WY7" s="0"/>
+      <c r="WZ7" s="0"/>
+      <c r="XA7" s="0"/>
+      <c r="XB7" s="0"/>
+      <c r="XC7" s="0"/>
+      <c r="XD7" s="0"/>
+      <c r="XE7" s="0"/>
+      <c r="XF7" s="0"/>
+      <c r="XG7" s="0"/>
+      <c r="XH7" s="0"/>
+      <c r="XI7" s="0"/>
+      <c r="XJ7" s="0"/>
+      <c r="XK7" s="0"/>
+      <c r="XL7" s="0"/>
+      <c r="XM7" s="0"/>
+      <c r="XN7" s="0"/>
+      <c r="XO7" s="0"/>
+      <c r="XP7" s="0"/>
+      <c r="XQ7" s="0"/>
+      <c r="XR7" s="0"/>
+      <c r="XS7" s="0"/>
+      <c r="XT7" s="0"/>
+      <c r="XU7" s="0"/>
+      <c r="XV7" s="0"/>
+      <c r="XW7" s="0"/>
+      <c r="XX7" s="0"/>
+      <c r="XY7" s="0"/>
+      <c r="XZ7" s="0"/>
+      <c r="YA7" s="0"/>
+      <c r="YB7" s="0"/>
+      <c r="YC7" s="0"/>
+      <c r="YD7" s="0"/>
+      <c r="YE7" s="0"/>
+      <c r="YF7" s="0"/>
+      <c r="YG7" s="0"/>
+      <c r="YH7" s="0"/>
+      <c r="YI7" s="0"/>
+      <c r="YJ7" s="0"/>
+      <c r="YK7" s="0"/>
+      <c r="YL7" s="0"/>
+      <c r="YM7" s="0"/>
+      <c r="YN7" s="0"/>
+      <c r="YO7" s="0"/>
+      <c r="YP7" s="0"/>
+      <c r="YQ7" s="0"/>
+      <c r="YR7" s="0"/>
+      <c r="YS7" s="0"/>
+      <c r="YT7" s="0"/>
+      <c r="YU7" s="0"/>
+      <c r="YV7" s="0"/>
+      <c r="YW7" s="0"/>
+      <c r="YX7" s="0"/>
+      <c r="YY7" s="0"/>
+      <c r="YZ7" s="0"/>
+      <c r="ZA7" s="0"/>
+      <c r="ZB7" s="0"/>
+      <c r="ZC7" s="0"/>
+      <c r="ZD7" s="0"/>
+      <c r="ZE7" s="0"/>
+      <c r="ZF7" s="0"/>
+      <c r="ZG7" s="0"/>
+      <c r="ZH7" s="0"/>
+      <c r="ZI7" s="0"/>
+      <c r="ZJ7" s="0"/>
+      <c r="ZK7" s="0"/>
+      <c r="ZL7" s="0"/>
+      <c r="ZM7" s="0"/>
+      <c r="ZN7" s="0"/>
+      <c r="ZO7" s="0"/>
+      <c r="ZP7" s="0"/>
+      <c r="ZQ7" s="0"/>
+      <c r="ZR7" s="0"/>
+      <c r="ZS7" s="0"/>
+      <c r="ZT7" s="0"/>
+      <c r="ZU7" s="0"/>
+      <c r="ZV7" s="0"/>
+      <c r="ZW7" s="0"/>
+      <c r="ZX7" s="0"/>
+      <c r="ZY7" s="0"/>
+      <c r="ZZ7" s="0"/>
+      <c r="AAA7" s="0"/>
+      <c r="AAB7" s="0"/>
+      <c r="AAC7" s="0"/>
+      <c r="AAD7" s="0"/>
+      <c r="AAE7" s="0"/>
+      <c r="AAF7" s="0"/>
+      <c r="AAG7" s="0"/>
+      <c r="AAH7" s="0"/>
+      <c r="AAI7" s="0"/>
+      <c r="AAJ7" s="0"/>
+      <c r="AAK7" s="0"/>
+      <c r="AAL7" s="0"/>
+      <c r="AAM7" s="0"/>
+      <c r="AAN7" s="0"/>
+      <c r="AAO7" s="0"/>
+      <c r="AAP7" s="0"/>
+      <c r="AAQ7" s="0"/>
+      <c r="AAR7" s="0"/>
+      <c r="AAS7" s="0"/>
+      <c r="AAT7" s="0"/>
+      <c r="AAU7" s="0"/>
+      <c r="AAV7" s="0"/>
+      <c r="AAW7" s="0"/>
+      <c r="AAX7" s="0"/>
+      <c r="AAY7" s="0"/>
+      <c r="AAZ7" s="0"/>
+      <c r="ABA7" s="0"/>
+      <c r="ABB7" s="0"/>
+      <c r="ABC7" s="0"/>
+      <c r="ABD7" s="0"/>
+      <c r="ABE7" s="0"/>
+      <c r="ABF7" s="0"/>
+      <c r="ABG7" s="0"/>
+      <c r="ABH7" s="0"/>
+      <c r="ABI7" s="0"/>
+      <c r="ABJ7" s="0"/>
+      <c r="ABK7" s="0"/>
+      <c r="ABL7" s="0"/>
+      <c r="ABM7" s="0"/>
+      <c r="ABN7" s="0"/>
+      <c r="ABO7" s="0"/>
+      <c r="ABP7" s="0"/>
+      <c r="ABQ7" s="0"/>
+      <c r="ABR7" s="0"/>
+      <c r="ABS7" s="0"/>
+      <c r="ABT7" s="0"/>
+      <c r="ABU7" s="0"/>
+      <c r="ABV7" s="0"/>
+      <c r="ABW7" s="0"/>
+      <c r="ABX7" s="0"/>
+      <c r="ABY7" s="0"/>
+      <c r="ABZ7" s="0"/>
+      <c r="ACA7" s="0"/>
+      <c r="ACB7" s="0"/>
+      <c r="ACC7" s="0"/>
+      <c r="ACD7" s="0"/>
+      <c r="ACE7" s="0"/>
+      <c r="ACF7" s="0"/>
+      <c r="ACG7" s="0"/>
+      <c r="ACH7" s="0"/>
+      <c r="ACI7" s="0"/>
+      <c r="ACJ7" s="0"/>
+      <c r="ACK7" s="0"/>
+      <c r="ACL7" s="0"/>
+      <c r="ACM7" s="0"/>
+      <c r="ACN7" s="0"/>
+      <c r="ACO7" s="0"/>
+      <c r="ACP7" s="0"/>
+      <c r="ACQ7" s="0"/>
+      <c r="ACR7" s="0"/>
+      <c r="ACS7" s="0"/>
+      <c r="ACT7" s="0"/>
+      <c r="ACU7" s="0"/>
+      <c r="ACV7" s="0"/>
+      <c r="ACW7" s="0"/>
+      <c r="ACX7" s="0"/>
+      <c r="ACY7" s="0"/>
+      <c r="ACZ7" s="0"/>
+      <c r="ADA7" s="0"/>
+      <c r="ADB7" s="0"/>
+      <c r="ADC7" s="0"/>
+      <c r="ADD7" s="0"/>
+      <c r="ADE7" s="0"/>
+      <c r="ADF7" s="0"/>
+      <c r="ADG7" s="0"/>
+      <c r="ADH7" s="0"/>
+      <c r="ADI7" s="0"/>
+      <c r="ADJ7" s="0"/>
+      <c r="ADK7" s="0"/>
+      <c r="ADL7" s="0"/>
+      <c r="ADM7" s="0"/>
+      <c r="ADN7" s="0"/>
+      <c r="ADO7" s="0"/>
+      <c r="ADP7" s="0"/>
+      <c r="ADQ7" s="0"/>
+      <c r="ADR7" s="0"/>
+      <c r="ADS7" s="0"/>
+      <c r="ADT7" s="0"/>
+      <c r="ADU7" s="0"/>
+      <c r="ADV7" s="0"/>
+      <c r="ADW7" s="0"/>
+      <c r="ADX7" s="0"/>
+      <c r="ADY7" s="0"/>
+      <c r="ADZ7" s="0"/>
+      <c r="AEA7" s="0"/>
+      <c r="AEB7" s="0"/>
+      <c r="AEC7" s="0"/>
+      <c r="AED7" s="0"/>
+      <c r="AEE7" s="0"/>
+      <c r="AEF7" s="0"/>
+      <c r="AEG7" s="0"/>
+      <c r="AEH7" s="0"/>
+      <c r="AEI7" s="0"/>
+      <c r="AEJ7" s="0"/>
+      <c r="AEK7" s="0"/>
+      <c r="AEL7" s="0"/>
+      <c r="AEM7" s="0"/>
+      <c r="AEN7" s="0"/>
+      <c r="AEO7" s="0"/>
+      <c r="AEP7" s="0"/>
+      <c r="AEQ7" s="0"/>
+      <c r="AER7" s="0"/>
+      <c r="AES7" s="0"/>
+      <c r="AET7" s="0"/>
+      <c r="AEU7" s="0"/>
+      <c r="AEV7" s="0"/>
+      <c r="AEW7" s="0"/>
+      <c r="AEX7" s="0"/>
+      <c r="AEY7" s="0"/>
+      <c r="AEZ7" s="0"/>
+      <c r="AFA7" s="0"/>
+      <c r="AFB7" s="0"/>
+      <c r="AFC7" s="0"/>
+      <c r="AFD7" s="0"/>
+      <c r="AFE7" s="0"/>
+      <c r="AFF7" s="0"/>
+      <c r="AFG7" s="0"/>
+      <c r="AFH7" s="0"/>
+      <c r="AFI7" s="0"/>
+      <c r="AFJ7" s="0"/>
+      <c r="AFK7" s="0"/>
+      <c r="AFL7" s="0"/>
+      <c r="AFM7" s="0"/>
+      <c r="AFN7" s="0"/>
+      <c r="AFO7" s="0"/>
+      <c r="AFP7" s="0"/>
+      <c r="AFQ7" s="0"/>
+      <c r="AFR7" s="0"/>
+      <c r="AFS7" s="0"/>
+      <c r="AFT7" s="0"/>
+      <c r="AFU7" s="0"/>
+      <c r="AFV7" s="0"/>
+      <c r="AFW7" s="0"/>
+      <c r="AFX7" s="0"/>
+      <c r="AFY7" s="0"/>
+      <c r="AFZ7" s="0"/>
+      <c r="AGA7" s="0"/>
+      <c r="AGB7" s="0"/>
+      <c r="AGC7" s="0"/>
+      <c r="AGD7" s="0"/>
+      <c r="AGE7" s="0"/>
+      <c r="AGF7" s="0"/>
+      <c r="AGG7" s="0"/>
+      <c r="AGH7" s="0"/>
+      <c r="AGI7" s="0"/>
+      <c r="AGJ7" s="0"/>
+      <c r="AGK7" s="0"/>
+      <c r="AGL7" s="0"/>
+      <c r="AGM7" s="0"/>
+      <c r="AGN7" s="0"/>
+      <c r="AGO7" s="0"/>
+      <c r="AGP7" s="0"/>
+      <c r="AGQ7" s="0"/>
+      <c r="AGR7" s="0"/>
+      <c r="AGS7" s="0"/>
+      <c r="AGT7" s="0"/>
+      <c r="AGU7" s="0"/>
+      <c r="AGV7" s="0"/>
+      <c r="AGW7" s="0"/>
+      <c r="AGX7" s="0"/>
+      <c r="AGY7" s="0"/>
+      <c r="AGZ7" s="0"/>
+      <c r="AHA7" s="0"/>
+      <c r="AHB7" s="0"/>
+      <c r="AHC7" s="0"/>
+      <c r="AHD7" s="0"/>
+      <c r="AHE7" s="0"/>
+      <c r="AHF7" s="0"/>
+      <c r="AHG7" s="0"/>
+      <c r="AHH7" s="0"/>
+      <c r="AHI7" s="0"/>
+      <c r="AHJ7" s="0"/>
+      <c r="AHK7" s="0"/>
+      <c r="AHL7" s="0"/>
+      <c r="AHM7" s="0"/>
+      <c r="AHN7" s="0"/>
+      <c r="AHO7" s="0"/>
+      <c r="AHP7" s="0"/>
+      <c r="AHQ7" s="0"/>
+      <c r="AHR7" s="0"/>
+      <c r="AHS7" s="0"/>
+      <c r="AHT7" s="0"/>
+      <c r="AHU7" s="0"/>
+      <c r="AHV7" s="0"/>
+      <c r="AHW7" s="0"/>
+      <c r="AHX7" s="0"/>
+      <c r="AHY7" s="0"/>
+      <c r="AHZ7" s="0"/>
+      <c r="AIA7" s="0"/>
+      <c r="AIB7" s="0"/>
+      <c r="AIC7" s="0"/>
+      <c r="AID7" s="0"/>
+      <c r="AIE7" s="0"/>
+      <c r="AIF7" s="0"/>
+      <c r="AIG7" s="0"/>
+      <c r="AIH7" s="0"/>
+      <c r="AII7" s="0"/>
+      <c r="AIJ7" s="0"/>
+      <c r="AIK7" s="0"/>
+      <c r="AIL7" s="0"/>
+      <c r="AIM7" s="0"/>
+      <c r="AIN7" s="0"/>
+      <c r="AIO7" s="0"/>
+      <c r="AIP7" s="0"/>
+      <c r="AIQ7" s="0"/>
+      <c r="AIR7" s="0"/>
+      <c r="AIS7" s="0"/>
+      <c r="AIT7" s="0"/>
+      <c r="AIU7" s="0"/>
+      <c r="AIV7" s="0"/>
+      <c r="AIW7" s="0"/>
+      <c r="AIX7" s="0"/>
+      <c r="AIY7" s="0"/>
+      <c r="AIZ7" s="0"/>
+      <c r="AJA7" s="0"/>
+      <c r="AJB7" s="0"/>
+      <c r="AJC7" s="0"/>
+      <c r="AJD7" s="0"/>
+      <c r="AJE7" s="0"/>
+      <c r="AJF7" s="0"/>
+      <c r="AJG7" s="0"/>
+      <c r="AJH7" s="0"/>
+      <c r="AJI7" s="0"/>
+      <c r="AJJ7" s="0"/>
+      <c r="AJK7" s="0"/>
+      <c r="AJL7" s="0"/>
+      <c r="AJM7" s="0"/>
+      <c r="AJN7" s="0"/>
+      <c r="AJO7" s="0"/>
+      <c r="AJP7" s="0"/>
+      <c r="AJQ7" s="0"/>
+      <c r="AJR7" s="0"/>
+      <c r="AJS7" s="0"/>
+      <c r="AJT7" s="0"/>
+      <c r="AJU7" s="0"/>
+      <c r="AJV7" s="0"/>
+      <c r="AJW7" s="0"/>
+      <c r="AJX7" s="0"/>
+      <c r="AJY7" s="0"/>
+      <c r="AJZ7" s="0"/>
+      <c r="AKA7" s="0"/>
+      <c r="AKB7" s="0"/>
+      <c r="AKC7" s="0"/>
+      <c r="AKD7" s="0"/>
+      <c r="AKE7" s="0"/>
+      <c r="AKF7" s="0"/>
+      <c r="AKG7" s="0"/>
+      <c r="AKH7" s="0"/>
+      <c r="AKI7" s="0"/>
+      <c r="AKJ7" s="0"/>
+      <c r="AKK7" s="0"/>
+      <c r="AKL7" s="0"/>
+      <c r="AKM7" s="0"/>
+      <c r="AKN7" s="0"/>
+      <c r="AKO7" s="0"/>
+      <c r="AKP7" s="0"/>
+      <c r="AKQ7" s="0"/>
+      <c r="AKR7" s="0"/>
+      <c r="AKS7" s="0"/>
+      <c r="AKT7" s="0"/>
+      <c r="AKU7" s="0"/>
+      <c r="AKV7" s="0"/>
+      <c r="AKW7" s="0"/>
+      <c r="AKX7" s="0"/>
+      <c r="AKY7" s="0"/>
+      <c r="AKZ7" s="0"/>
+      <c r="ALA7" s="0"/>
+      <c r="ALB7" s="0"/>
+      <c r="ALC7" s="0"/>
+      <c r="ALD7" s="0"/>
+      <c r="ALE7" s="0"/>
+      <c r="ALF7" s="0"/>
+      <c r="ALG7" s="0"/>
+      <c r="ALH7" s="0"/>
+      <c r="ALI7" s="0"/>
+      <c r="ALJ7" s="0"/>
+      <c r="ALK7" s="0"/>
+      <c r="ALL7" s="0"/>
+      <c r="ALM7" s="0"/>
+      <c r="ALN7" s="0"/>
+      <c r="ALO7" s="0"/>
+      <c r="ALP7" s="0"/>
+      <c r="ALQ7" s="0"/>
+      <c r="ALR7" s="0"/>
+      <c r="ALS7" s="0"/>
+      <c r="ALT7" s="0"/>
+      <c r="ALU7" s="0"/>
+      <c r="ALV7" s="0"/>
+      <c r="ALW7" s="0"/>
+      <c r="ALX7" s="0"/>
+      <c r="ALY7" s="0"/>
+      <c r="ALZ7" s="0"/>
+      <c r="AMA7" s="0"/>
+      <c r="AMB7" s="0"/>
+      <c r="AMC7" s="0"/>
+      <c r="AMD7" s="0"/>
+      <c r="AME7" s="0"/>
+      <c r="AMF7" s="0"/>
+      <c r="AMG7" s="0"/>
+      <c r="AMH7" s="0"/>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" s="2" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="D8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="E8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="F8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="H8" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15" t="s">
+      <c r="I8" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="18" t="n">
-        <v>43170</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="24" t="n">
+        <v>43170</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="18" t="n">
-        <v>43170</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="24" t="n">
+        <v>43170</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="18" t="n">
-        <v>43219</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="24" t="n">
+        <v>43219</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="18" t="n">
-        <v>43219</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="24" t="n">
+        <v>43219</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="18" t="n">
-        <v>43233</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="24" t="n">
+        <v>43233</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="18" t="n">
-        <v>43233</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="24" t="n">
+        <v>43233</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="18" t="n">
-        <v>43177</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="24" t="n">
+        <v>43177</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="18" t="n">
-        <v>43177</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="24" t="n">
+        <v>43177</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="18" t="n">
-        <v>43182</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="18" t="n">
-        <v>43182</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>58</v>
-      </c>
+      <c r="A17" s="0"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+      <c r="AE17" s="0"/>
+      <c r="AF17" s="0"/>
+      <c r="AG17" s="0"/>
+      <c r="AH17" s="0"/>
+      <c r="AI17" s="0"/>
+      <c r="AJ17" s="0"/>
+      <c r="AK17" s="0"/>
+      <c r="AL17" s="0"/>
+      <c r="AM17" s="0"/>
+      <c r="AN17" s="0"/>
+      <c r="AO17" s="0"/>
+      <c r="AP17" s="0"/>
+      <c r="AQ17" s="0"/>
+      <c r="AR17" s="0"/>
+      <c r="AS17" s="0"/>
+      <c r="AT17" s="0"/>
+      <c r="AU17" s="0"/>
+      <c r="AV17" s="0"/>
+      <c r="AW17" s="0"/>
+      <c r="AX17" s="0"/>
+      <c r="AY17" s="0"/>
+      <c r="AZ17" s="0"/>
+      <c r="BA17" s="0"/>
+      <c r="BB17" s="0"/>
+      <c r="BC17" s="0"/>
+      <c r="BD17" s="0"/>
+      <c r="BE17" s="0"/>
+      <c r="BF17" s="0"/>
+      <c r="BG17" s="0"/>
+      <c r="BH17" s="0"/>
+      <c r="BI17" s="0"/>
+      <c r="BJ17" s="0"/>
+      <c r="BK17" s="0"/>
+      <c r="BL17" s="0"/>
+      <c r="BM17" s="0"/>
+      <c r="BN17" s="0"/>
+      <c r="BO17" s="0"/>
+      <c r="BP17" s="0"/>
+      <c r="BQ17" s="0"/>
+      <c r="BR17" s="0"/>
+      <c r="BS17" s="0"/>
+      <c r="BT17" s="0"/>
+      <c r="BU17" s="0"/>
+      <c r="BV17" s="0"/>
+      <c r="BW17" s="0"/>
+      <c r="BX17" s="0"/>
+      <c r="BY17" s="0"/>
+      <c r="BZ17" s="0"/>
+      <c r="CA17" s="0"/>
+      <c r="CB17" s="0"/>
+      <c r="CC17" s="0"/>
+      <c r="CD17" s="0"/>
+      <c r="CE17" s="0"/>
+      <c r="CF17" s="0"/>
+      <c r="CG17" s="0"/>
+      <c r="CH17" s="0"/>
+      <c r="CI17" s="0"/>
+      <c r="CJ17" s="0"/>
+      <c r="CK17" s="0"/>
+      <c r="CL17" s="0"/>
+      <c r="CM17" s="0"/>
+      <c r="CN17" s="0"/>
+      <c r="CO17" s="0"/>
+      <c r="CP17" s="0"/>
+      <c r="CQ17" s="0"/>
+      <c r="CR17" s="0"/>
+      <c r="CS17" s="0"/>
+      <c r="CT17" s="0"/>
+      <c r="CU17" s="0"/>
+      <c r="CV17" s="0"/>
+      <c r="CW17" s="0"/>
+      <c r="CX17" s="0"/>
+      <c r="CY17" s="0"/>
+      <c r="CZ17" s="0"/>
+      <c r="DA17" s="0"/>
+      <c r="DB17" s="0"/>
+      <c r="DC17" s="0"/>
+      <c r="DD17" s="0"/>
+      <c r="DE17" s="0"/>
+      <c r="DF17" s="0"/>
+      <c r="DG17" s="0"/>
+      <c r="DH17" s="0"/>
+      <c r="DI17" s="0"/>
+      <c r="DJ17" s="0"/>
+      <c r="DK17" s="0"/>
+      <c r="DL17" s="0"/>
+      <c r="DM17" s="0"/>
+      <c r="DN17" s="0"/>
+      <c r="DO17" s="0"/>
+      <c r="DP17" s="0"/>
+      <c r="DQ17" s="0"/>
+      <c r="DR17" s="0"/>
+      <c r="DS17" s="0"/>
+      <c r="DT17" s="0"/>
+      <c r="DU17" s="0"/>
+      <c r="DV17" s="0"/>
+      <c r="DW17" s="0"/>
+      <c r="DX17" s="0"/>
+      <c r="DY17" s="0"/>
+      <c r="DZ17" s="0"/>
+      <c r="EA17" s="0"/>
+      <c r="EB17" s="0"/>
+      <c r="EC17" s="0"/>
+      <c r="ED17" s="0"/>
+      <c r="EE17" s="0"/>
+      <c r="EF17" s="0"/>
+      <c r="EG17" s="0"/>
+      <c r="EH17" s="0"/>
+      <c r="EI17" s="0"/>
+      <c r="EJ17" s="0"/>
+      <c r="EK17" s="0"/>
+      <c r="EL17" s="0"/>
+      <c r="EM17" s="0"/>
+      <c r="EN17" s="0"/>
+      <c r="EO17" s="0"/>
+      <c r="EP17" s="0"/>
+      <c r="EQ17" s="0"/>
+      <c r="ER17" s="0"/>
+      <c r="ES17" s="0"/>
+      <c r="ET17" s="0"/>
+      <c r="EU17" s="0"/>
+      <c r="EV17" s="0"/>
+      <c r="EW17" s="0"/>
+      <c r="EX17" s="0"/>
+      <c r="EY17" s="0"/>
+      <c r="EZ17" s="0"/>
+      <c r="FA17" s="0"/>
+      <c r="FB17" s="0"/>
+      <c r="FC17" s="0"/>
+      <c r="FD17" s="0"/>
+      <c r="FE17" s="0"/>
+      <c r="FF17" s="0"/>
+      <c r="FG17" s="0"/>
+      <c r="FH17" s="0"/>
+      <c r="FI17" s="0"/>
+      <c r="FJ17" s="0"/>
+      <c r="FK17" s="0"/>
+      <c r="FL17" s="0"/>
+      <c r="FM17" s="0"/>
+      <c r="FN17" s="0"/>
+      <c r="FO17" s="0"/>
+      <c r="FP17" s="0"/>
+      <c r="FQ17" s="0"/>
+      <c r="FR17" s="0"/>
+      <c r="FS17" s="0"/>
+      <c r="FT17" s="0"/>
+      <c r="FU17" s="0"/>
+      <c r="FV17" s="0"/>
+      <c r="FW17" s="0"/>
+      <c r="FX17" s="0"/>
+      <c r="FY17" s="0"/>
+      <c r="FZ17" s="0"/>
+      <c r="GA17" s="0"/>
+      <c r="GB17" s="0"/>
+      <c r="GC17" s="0"/>
+      <c r="GD17" s="0"/>
+      <c r="GE17" s="0"/>
+      <c r="GF17" s="0"/>
+      <c r="GG17" s="0"/>
+      <c r="GH17" s="0"/>
+      <c r="GI17" s="0"/>
+      <c r="GJ17" s="0"/>
+      <c r="GK17" s="0"/>
+      <c r="GL17" s="0"/>
+      <c r="GM17" s="0"/>
+      <c r="GN17" s="0"/>
+      <c r="GO17" s="0"/>
+      <c r="GP17" s="0"/>
+      <c r="GQ17" s="0"/>
+      <c r="GR17" s="0"/>
+      <c r="GS17" s="0"/>
+      <c r="GT17" s="0"/>
+      <c r="GU17" s="0"/>
+      <c r="GV17" s="0"/>
+      <c r="GW17" s="0"/>
+      <c r="GX17" s="0"/>
+      <c r="GY17" s="0"/>
+      <c r="GZ17" s="0"/>
+      <c r="HA17" s="0"/>
+      <c r="HB17" s="0"/>
+      <c r="HC17" s="0"/>
+      <c r="HD17" s="0"/>
+      <c r="HE17" s="0"/>
+      <c r="HF17" s="0"/>
+      <c r="HG17" s="0"/>
+      <c r="HH17" s="0"/>
+      <c r="HI17" s="0"/>
+      <c r="HJ17" s="0"/>
+      <c r="HK17" s="0"/>
+      <c r="HL17" s="0"/>
+      <c r="HM17" s="0"/>
+      <c r="HN17" s="0"/>
+      <c r="HO17" s="0"/>
+      <c r="HP17" s="0"/>
+      <c r="HQ17" s="0"/>
+      <c r="HR17" s="0"/>
+      <c r="HS17" s="0"/>
+      <c r="HT17" s="0"/>
+      <c r="HU17" s="0"/>
+      <c r="HV17" s="0"/>
+      <c r="HW17" s="0"/>
+      <c r="HX17" s="0"/>
+      <c r="HY17" s="0"/>
+      <c r="HZ17" s="0"/>
+      <c r="IA17" s="0"/>
+      <c r="IB17" s="0"/>
+      <c r="IC17" s="0"/>
+      <c r="ID17" s="0"/>
+      <c r="IE17" s="0"/>
+      <c r="IF17" s="0"/>
+      <c r="IG17" s="0"/>
+      <c r="IH17" s="0"/>
+      <c r="II17" s="0"/>
+      <c r="IJ17" s="0"/>
+      <c r="IK17" s="0"/>
+      <c r="IL17" s="0"/>
+      <c r="IM17" s="0"/>
+      <c r="IN17" s="0"/>
+      <c r="IO17" s="0"/>
+      <c r="IP17" s="0"/>
+      <c r="IQ17" s="0"/>
+      <c r="IR17" s="0"/>
+      <c r="IS17" s="0"/>
+      <c r="IT17" s="0"/>
+      <c r="IU17" s="0"/>
+      <c r="IV17" s="0"/>
+      <c r="IW17" s="0"/>
+      <c r="IX17" s="0"/>
+      <c r="IY17" s="0"/>
+      <c r="IZ17" s="0"/>
+      <c r="JA17" s="0"/>
+      <c r="JB17" s="0"/>
+      <c r="JC17" s="0"/>
+      <c r="JD17" s="0"/>
+      <c r="JE17" s="0"/>
+      <c r="JF17" s="0"/>
+      <c r="JG17" s="0"/>
+      <c r="JH17" s="0"/>
+      <c r="JI17" s="0"/>
+      <c r="JJ17" s="0"/>
+      <c r="JK17" s="0"/>
+      <c r="JL17" s="0"/>
+      <c r="JM17" s="0"/>
+      <c r="JN17" s="0"/>
+      <c r="JO17" s="0"/>
+      <c r="JP17" s="0"/>
+      <c r="JQ17" s="0"/>
+      <c r="JR17" s="0"/>
+      <c r="JS17" s="0"/>
+      <c r="JT17" s="0"/>
+      <c r="JU17" s="0"/>
+      <c r="JV17" s="0"/>
+      <c r="JW17" s="0"/>
+      <c r="JX17" s="0"/>
+      <c r="JY17" s="0"/>
+      <c r="JZ17" s="0"/>
+      <c r="KA17" s="0"/>
+      <c r="KB17" s="0"/>
+      <c r="KC17" s="0"/>
+      <c r="KD17" s="0"/>
+      <c r="KE17" s="0"/>
+      <c r="KF17" s="0"/>
+      <c r="KG17" s="0"/>
+      <c r="KH17" s="0"/>
+      <c r="KI17" s="0"/>
+      <c r="KJ17" s="0"/>
+      <c r="KK17" s="0"/>
+      <c r="KL17" s="0"/>
+      <c r="KM17" s="0"/>
+      <c r="KN17" s="0"/>
+      <c r="KO17" s="0"/>
+      <c r="KP17" s="0"/>
+      <c r="KQ17" s="0"/>
+      <c r="KR17" s="0"/>
+      <c r="KS17" s="0"/>
+      <c r="KT17" s="0"/>
+      <c r="KU17" s="0"/>
+      <c r="KV17" s="0"/>
+      <c r="KW17" s="0"/>
+      <c r="KX17" s="0"/>
+      <c r="KY17" s="0"/>
+      <c r="KZ17" s="0"/>
+      <c r="LA17" s="0"/>
+      <c r="LB17" s="0"/>
+      <c r="LC17" s="0"/>
+      <c r="LD17" s="0"/>
+      <c r="LE17" s="0"/>
+      <c r="LF17" s="0"/>
+      <c r="LG17" s="0"/>
+      <c r="LH17" s="0"/>
+      <c r="LI17" s="0"/>
+      <c r="LJ17" s="0"/>
+      <c r="LK17" s="0"/>
+      <c r="LL17" s="0"/>
+      <c r="LM17" s="0"/>
+      <c r="LN17" s="0"/>
+      <c r="LO17" s="0"/>
+      <c r="LP17" s="0"/>
+      <c r="LQ17" s="0"/>
+      <c r="LR17" s="0"/>
+      <c r="LS17" s="0"/>
+      <c r="LT17" s="0"/>
+      <c r="LU17" s="0"/>
+      <c r="LV17" s="0"/>
+      <c r="LW17" s="0"/>
+      <c r="LX17" s="0"/>
+      <c r="LY17" s="0"/>
+      <c r="LZ17" s="0"/>
+      <c r="MA17" s="0"/>
+      <c r="MB17" s="0"/>
+      <c r="MC17" s="0"/>
+      <c r="MD17" s="0"/>
+      <c r="ME17" s="0"/>
+      <c r="MF17" s="0"/>
+      <c r="MG17" s="0"/>
+      <c r="MH17" s="0"/>
+      <c r="MI17" s="0"/>
+      <c r="MJ17" s="0"/>
+      <c r="MK17" s="0"/>
+      <c r="ML17" s="0"/>
+      <c r="MM17" s="0"/>
+      <c r="MN17" s="0"/>
+      <c r="MO17" s="0"/>
+      <c r="MP17" s="0"/>
+      <c r="MQ17" s="0"/>
+      <c r="MR17" s="0"/>
+      <c r="MS17" s="0"/>
+      <c r="MT17" s="0"/>
+      <c r="MU17" s="0"/>
+      <c r="MV17" s="0"/>
+      <c r="MW17" s="0"/>
+      <c r="MX17" s="0"/>
+      <c r="MY17" s="0"/>
+      <c r="MZ17" s="0"/>
+      <c r="NA17" s="0"/>
+      <c r="NB17" s="0"/>
+      <c r="NC17" s="0"/>
+      <c r="ND17" s="0"/>
+      <c r="NE17" s="0"/>
+      <c r="NF17" s="0"/>
+      <c r="NG17" s="0"/>
+      <c r="NH17" s="0"/>
+      <c r="NI17" s="0"/>
+      <c r="NJ17" s="0"/>
+      <c r="NK17" s="0"/>
+      <c r="NL17" s="0"/>
+      <c r="NM17" s="0"/>
+      <c r="NN17" s="0"/>
+      <c r="NO17" s="0"/>
+      <c r="NP17" s="0"/>
+      <c r="NQ17" s="0"/>
+      <c r="NR17" s="0"/>
+      <c r="NS17" s="0"/>
+      <c r="NT17" s="0"/>
+      <c r="NU17" s="0"/>
+      <c r="NV17" s="0"/>
+      <c r="NW17" s="0"/>
+      <c r="NX17" s="0"/>
+      <c r="NY17" s="0"/>
+      <c r="NZ17" s="0"/>
+      <c r="OA17" s="0"/>
+      <c r="OB17" s="0"/>
+      <c r="OC17" s="0"/>
+      <c r="OD17" s="0"/>
+      <c r="OE17" s="0"/>
+      <c r="OF17" s="0"/>
+      <c r="OG17" s="0"/>
+      <c r="OH17" s="0"/>
+      <c r="OI17" s="0"/>
+      <c r="OJ17" s="0"/>
+      <c r="OK17" s="0"/>
+      <c r="OL17" s="0"/>
+      <c r="OM17" s="0"/>
+      <c r="ON17" s="0"/>
+      <c r="OO17" s="0"/>
+      <c r="OP17" s="0"/>
+      <c r="OQ17" s="0"/>
+      <c r="OR17" s="0"/>
+      <c r="OS17" s="0"/>
+      <c r="OT17" s="0"/>
+      <c r="OU17" s="0"/>
+      <c r="OV17" s="0"/>
+      <c r="OW17" s="0"/>
+      <c r="OX17" s="0"/>
+      <c r="OY17" s="0"/>
+      <c r="OZ17" s="0"/>
+      <c r="PA17" s="0"/>
+      <c r="PB17" s="0"/>
+      <c r="PC17" s="0"/>
+      <c r="PD17" s="0"/>
+      <c r="PE17" s="0"/>
+      <c r="PF17" s="0"/>
+      <c r="PG17" s="0"/>
+      <c r="PH17" s="0"/>
+      <c r="PI17" s="0"/>
+      <c r="PJ17" s="0"/>
+      <c r="PK17" s="0"/>
+      <c r="PL17" s="0"/>
+      <c r="PM17" s="0"/>
+      <c r="PN17" s="0"/>
+      <c r="PO17" s="0"/>
+      <c r="PP17" s="0"/>
+      <c r="PQ17" s="0"/>
+      <c r="PR17" s="0"/>
+      <c r="PS17" s="0"/>
+      <c r="PT17" s="0"/>
+      <c r="PU17" s="0"/>
+      <c r="PV17" s="0"/>
+      <c r="PW17" s="0"/>
+      <c r="PX17" s="0"/>
+      <c r="PY17" s="0"/>
+      <c r="PZ17" s="0"/>
+      <c r="QA17" s="0"/>
+      <c r="QB17" s="0"/>
+      <c r="QC17" s="0"/>
+      <c r="QD17" s="0"/>
+      <c r="QE17" s="0"/>
+      <c r="QF17" s="0"/>
+      <c r="QG17" s="0"/>
+      <c r="QH17" s="0"/>
+      <c r="QI17" s="0"/>
+      <c r="QJ17" s="0"/>
+      <c r="QK17" s="0"/>
+      <c r="QL17" s="0"/>
+      <c r="QM17" s="0"/>
+      <c r="QN17" s="0"/>
+      <c r="QO17" s="0"/>
+      <c r="QP17" s="0"/>
+      <c r="QQ17" s="0"/>
+      <c r="QR17" s="0"/>
+      <c r="QS17" s="0"/>
+      <c r="QT17" s="0"/>
+      <c r="QU17" s="0"/>
+      <c r="QV17" s="0"/>
+      <c r="QW17" s="0"/>
+      <c r="QX17" s="0"/>
+      <c r="QY17" s="0"/>
+      <c r="QZ17" s="0"/>
+      <c r="RA17" s="0"/>
+      <c r="RB17" s="0"/>
+      <c r="RC17" s="0"/>
+      <c r="RD17" s="0"/>
+      <c r="RE17" s="0"/>
+      <c r="RF17" s="0"/>
+      <c r="RG17" s="0"/>
+      <c r="RH17" s="0"/>
+      <c r="RI17" s="0"/>
+      <c r="RJ17" s="0"/>
+      <c r="RK17" s="0"/>
+      <c r="RL17" s="0"/>
+      <c r="RM17" s="0"/>
+      <c r="RN17" s="0"/>
+      <c r="RO17" s="0"/>
+      <c r="RP17" s="0"/>
+      <c r="RQ17" s="0"/>
+      <c r="RR17" s="0"/>
+      <c r="RS17" s="0"/>
+      <c r="RT17" s="0"/>
+      <c r="RU17" s="0"/>
+      <c r="RV17" s="0"/>
+      <c r="RW17" s="0"/>
+      <c r="RX17" s="0"/>
+      <c r="RY17" s="0"/>
+      <c r="RZ17" s="0"/>
+      <c r="SA17" s="0"/>
+      <c r="SB17" s="0"/>
+      <c r="SC17" s="0"/>
+      <c r="SD17" s="0"/>
+      <c r="SE17" s="0"/>
+      <c r="SF17" s="0"/>
+      <c r="SG17" s="0"/>
+      <c r="SH17" s="0"/>
+      <c r="SI17" s="0"/>
+      <c r="SJ17" s="0"/>
+      <c r="SK17" s="0"/>
+      <c r="SL17" s="0"/>
+      <c r="SM17" s="0"/>
+      <c r="SN17" s="0"/>
+      <c r="SO17" s="0"/>
+      <c r="SP17" s="0"/>
+      <c r="SQ17" s="0"/>
+      <c r="SR17" s="0"/>
+      <c r="SS17" s="0"/>
+      <c r="ST17" s="0"/>
+      <c r="SU17" s="0"/>
+      <c r="SV17" s="0"/>
+      <c r="SW17" s="0"/>
+      <c r="SX17" s="0"/>
+      <c r="SY17" s="0"/>
+      <c r="SZ17" s="0"/>
+      <c r="TA17" s="0"/>
+      <c r="TB17" s="0"/>
+      <c r="TC17" s="0"/>
+      <c r="TD17" s="0"/>
+      <c r="TE17" s="0"/>
+      <c r="TF17" s="0"/>
+      <c r="TG17" s="0"/>
+      <c r="TH17" s="0"/>
+      <c r="TI17" s="0"/>
+      <c r="TJ17" s="0"/>
+      <c r="TK17" s="0"/>
+      <c r="TL17" s="0"/>
+      <c r="TM17" s="0"/>
+      <c r="TN17" s="0"/>
+      <c r="TO17" s="0"/>
+      <c r="TP17" s="0"/>
+      <c r="TQ17" s="0"/>
+      <c r="TR17" s="0"/>
+      <c r="TS17" s="0"/>
+      <c r="TT17" s="0"/>
+      <c r="TU17" s="0"/>
+      <c r="TV17" s="0"/>
+      <c r="TW17" s="0"/>
+      <c r="TX17" s="0"/>
+      <c r="TY17" s="0"/>
+      <c r="TZ17" s="0"/>
+      <c r="UA17" s="0"/>
+      <c r="UB17" s="0"/>
+      <c r="UC17" s="0"/>
+      <c r="UD17" s="0"/>
+      <c r="UE17" s="0"/>
+      <c r="UF17" s="0"/>
+      <c r="UG17" s="0"/>
+      <c r="UH17" s="0"/>
+      <c r="UI17" s="0"/>
+      <c r="UJ17" s="0"/>
+      <c r="UK17" s="0"/>
+      <c r="UL17" s="0"/>
+      <c r="UM17" s="0"/>
+      <c r="UN17" s="0"/>
+      <c r="UO17" s="0"/>
+      <c r="UP17" s="0"/>
+      <c r="UQ17" s="0"/>
+      <c r="UR17" s="0"/>
+      <c r="US17" s="0"/>
+      <c r="UT17" s="0"/>
+      <c r="UU17" s="0"/>
+      <c r="UV17" s="0"/>
+      <c r="UW17" s="0"/>
+      <c r="UX17" s="0"/>
+      <c r="UY17" s="0"/>
+      <c r="UZ17" s="0"/>
+      <c r="VA17" s="0"/>
+      <c r="VB17" s="0"/>
+      <c r="VC17" s="0"/>
+      <c r="VD17" s="0"/>
+      <c r="VE17" s="0"/>
+      <c r="VF17" s="0"/>
+      <c r="VG17" s="0"/>
+      <c r="VH17" s="0"/>
+      <c r="VI17" s="0"/>
+      <c r="VJ17" s="0"/>
+      <c r="VK17" s="0"/>
+      <c r="VL17" s="0"/>
+      <c r="VM17" s="0"/>
+      <c r="VN17" s="0"/>
+      <c r="VO17" s="0"/>
+      <c r="VP17" s="0"/>
+      <c r="VQ17" s="0"/>
+      <c r="VR17" s="0"/>
+      <c r="VS17" s="0"/>
+      <c r="VT17" s="0"/>
+      <c r="VU17" s="0"/>
+      <c r="VV17" s="0"/>
+      <c r="VW17" s="0"/>
+      <c r="VX17" s="0"/>
+      <c r="VY17" s="0"/>
+      <c r="VZ17" s="0"/>
+      <c r="WA17" s="0"/>
+      <c r="WB17" s="0"/>
+      <c r="WC17" s="0"/>
+      <c r="WD17" s="0"/>
+      <c r="WE17" s="0"/>
+      <c r="WF17" s="0"/>
+      <c r="WG17" s="0"/>
+      <c r="WH17" s="0"/>
+      <c r="WI17" s="0"/>
+      <c r="WJ17" s="0"/>
+      <c r="WK17" s="0"/>
+      <c r="WL17" s="0"/>
+      <c r="WM17" s="0"/>
+      <c r="WN17" s="0"/>
+      <c r="WO17" s="0"/>
+      <c r="WP17" s="0"/>
+      <c r="WQ17" s="0"/>
+      <c r="WR17" s="0"/>
+      <c r="WS17" s="0"/>
+      <c r="WT17" s="0"/>
+      <c r="WU17" s="0"/>
+      <c r="WV17" s="0"/>
+      <c r="WW17" s="0"/>
+      <c r="WX17" s="0"/>
+      <c r="WY17" s="0"/>
+      <c r="WZ17" s="0"/>
+      <c r="XA17" s="0"/>
+      <c r="XB17" s="0"/>
+      <c r="XC17" s="0"/>
+      <c r="XD17" s="0"/>
+      <c r="XE17" s="0"/>
+      <c r="XF17" s="0"/>
+      <c r="XG17" s="0"/>
+      <c r="XH17" s="0"/>
+      <c r="XI17" s="0"/>
+      <c r="XJ17" s="0"/>
+      <c r="XK17" s="0"/>
+      <c r="XL17" s="0"/>
+      <c r="XM17" s="0"/>
+      <c r="XN17" s="0"/>
+      <c r="XO17" s="0"/>
+      <c r="XP17" s="0"/>
+      <c r="XQ17" s="0"/>
+      <c r="XR17" s="0"/>
+      <c r="XS17" s="0"/>
+      <c r="XT17" s="0"/>
+      <c r="XU17" s="0"/>
+      <c r="XV17" s="0"/>
+      <c r="XW17" s="0"/>
+      <c r="XX17" s="0"/>
+      <c r="XY17" s="0"/>
+      <c r="XZ17" s="0"/>
+      <c r="YA17" s="0"/>
+      <c r="YB17" s="0"/>
+      <c r="YC17" s="0"/>
+      <c r="YD17" s="0"/>
+      <c r="YE17" s="0"/>
+      <c r="YF17" s="0"/>
+      <c r="YG17" s="0"/>
+      <c r="YH17" s="0"/>
+      <c r="YI17" s="0"/>
+      <c r="YJ17" s="0"/>
+      <c r="YK17" s="0"/>
+      <c r="YL17" s="0"/>
+      <c r="YM17" s="0"/>
+      <c r="YN17" s="0"/>
+      <c r="YO17" s="0"/>
+      <c r="YP17" s="0"/>
+      <c r="YQ17" s="0"/>
+      <c r="YR17" s="0"/>
+      <c r="YS17" s="0"/>
+      <c r="YT17" s="0"/>
+      <c r="YU17" s="0"/>
+      <c r="YV17" s="0"/>
+      <c r="YW17" s="0"/>
+      <c r="YX17" s="0"/>
+      <c r="YY17" s="0"/>
+      <c r="YZ17" s="0"/>
+      <c r="ZA17" s="0"/>
+      <c r="ZB17" s="0"/>
+      <c r="ZC17" s="0"/>
+      <c r="ZD17" s="0"/>
+      <c r="ZE17" s="0"/>
+      <c r="ZF17" s="0"/>
+      <c r="ZG17" s="0"/>
+      <c r="ZH17" s="0"/>
+      <c r="ZI17" s="0"/>
+      <c r="ZJ17" s="0"/>
+      <c r="ZK17" s="0"/>
+      <c r="ZL17" s="0"/>
+      <c r="ZM17" s="0"/>
+      <c r="ZN17" s="0"/>
+      <c r="ZO17" s="0"/>
+      <c r="ZP17" s="0"/>
+      <c r="ZQ17" s="0"/>
+      <c r="ZR17" s="0"/>
+      <c r="ZS17" s="0"/>
+      <c r="ZT17" s="0"/>
+      <c r="ZU17" s="0"/>
+      <c r="ZV17" s="0"/>
+      <c r="ZW17" s="0"/>
+      <c r="ZX17" s="0"/>
+      <c r="ZY17" s="0"/>
+      <c r="ZZ17" s="0"/>
+      <c r="AAA17" s="0"/>
+      <c r="AAB17" s="0"/>
+      <c r="AAC17" s="0"/>
+      <c r="AAD17" s="0"/>
+      <c r="AAE17" s="0"/>
+      <c r="AAF17" s="0"/>
+      <c r="AAG17" s="0"/>
+      <c r="AAH17" s="0"/>
+      <c r="AAI17" s="0"/>
+      <c r="AAJ17" s="0"/>
+      <c r="AAK17" s="0"/>
+      <c r="AAL17" s="0"/>
+      <c r="AAM17" s="0"/>
+      <c r="AAN17" s="0"/>
+      <c r="AAO17" s="0"/>
+      <c r="AAP17" s="0"/>
+      <c r="AAQ17" s="0"/>
+      <c r="AAR17" s="0"/>
+      <c r="AAS17" s="0"/>
+      <c r="AAT17" s="0"/>
+      <c r="AAU17" s="0"/>
+      <c r="AAV17" s="0"/>
+      <c r="AAW17" s="0"/>
+      <c r="AAX17" s="0"/>
+      <c r="AAY17" s="0"/>
+      <c r="AAZ17" s="0"/>
+      <c r="ABA17" s="0"/>
+      <c r="ABB17" s="0"/>
+      <c r="ABC17" s="0"/>
+      <c r="ABD17" s="0"/>
+      <c r="ABE17" s="0"/>
+      <c r="ABF17" s="0"/>
+      <c r="ABG17" s="0"/>
+      <c r="ABH17" s="0"/>
+      <c r="ABI17" s="0"/>
+      <c r="ABJ17" s="0"/>
+      <c r="ABK17" s="0"/>
+      <c r="ABL17" s="0"/>
+      <c r="ABM17" s="0"/>
+      <c r="ABN17" s="0"/>
+      <c r="ABO17" s="0"/>
+      <c r="ABP17" s="0"/>
+      <c r="ABQ17" s="0"/>
+      <c r="ABR17" s="0"/>
+      <c r="ABS17" s="0"/>
+      <c r="ABT17" s="0"/>
+      <c r="ABU17" s="0"/>
+      <c r="ABV17" s="0"/>
+      <c r="ABW17" s="0"/>
+      <c r="ABX17" s="0"/>
+      <c r="ABY17" s="0"/>
+      <c r="ABZ17" s="0"/>
+      <c r="ACA17" s="0"/>
+      <c r="ACB17" s="0"/>
+      <c r="ACC17" s="0"/>
+      <c r="ACD17" s="0"/>
+      <c r="ACE17" s="0"/>
+      <c r="ACF17" s="0"/>
+      <c r="ACG17" s="0"/>
+      <c r="ACH17" s="0"/>
+      <c r="ACI17" s="0"/>
+      <c r="ACJ17" s="0"/>
+      <c r="ACK17" s="0"/>
+      <c r="ACL17" s="0"/>
+      <c r="ACM17" s="0"/>
+      <c r="ACN17" s="0"/>
+      <c r="ACO17" s="0"/>
+      <c r="ACP17" s="0"/>
+      <c r="ACQ17" s="0"/>
+      <c r="ACR17" s="0"/>
+      <c r="ACS17" s="0"/>
+      <c r="ACT17" s="0"/>
+      <c r="ACU17" s="0"/>
+      <c r="ACV17" s="0"/>
+      <c r="ACW17" s="0"/>
+      <c r="ACX17" s="0"/>
+      <c r="ACY17" s="0"/>
+      <c r="ACZ17" s="0"/>
+      <c r="ADA17" s="0"/>
+      <c r="ADB17" s="0"/>
+      <c r="ADC17" s="0"/>
+      <c r="ADD17" s="0"/>
+      <c r="ADE17" s="0"/>
+      <c r="ADF17" s="0"/>
+      <c r="ADG17" s="0"/>
+      <c r="ADH17" s="0"/>
+      <c r="ADI17" s="0"/>
+      <c r="ADJ17" s="0"/>
+      <c r="ADK17" s="0"/>
+      <c r="ADL17" s="0"/>
+      <c r="ADM17" s="0"/>
+      <c r="ADN17" s="0"/>
+      <c r="ADO17" s="0"/>
+      <c r="ADP17" s="0"/>
+      <c r="ADQ17" s="0"/>
+      <c r="ADR17" s="0"/>
+      <c r="ADS17" s="0"/>
+      <c r="ADT17" s="0"/>
+      <c r="ADU17" s="0"/>
+      <c r="ADV17" s="0"/>
+      <c r="ADW17" s="0"/>
+      <c r="ADX17" s="0"/>
+      <c r="ADY17" s="0"/>
+      <c r="ADZ17" s="0"/>
+      <c r="AEA17" s="0"/>
+      <c r="AEB17" s="0"/>
+      <c r="AEC17" s="0"/>
+      <c r="AED17" s="0"/>
+      <c r="AEE17" s="0"/>
+      <c r="AEF17" s="0"/>
+      <c r="AEG17" s="0"/>
+      <c r="AEH17" s="0"/>
+      <c r="AEI17" s="0"/>
+      <c r="AEJ17" s="0"/>
+      <c r="AEK17" s="0"/>
+      <c r="AEL17" s="0"/>
+      <c r="AEM17" s="0"/>
+      <c r="AEN17" s="0"/>
+      <c r="AEO17" s="0"/>
+      <c r="AEP17" s="0"/>
+      <c r="AEQ17" s="0"/>
+      <c r="AER17" s="0"/>
+      <c r="AES17" s="0"/>
+      <c r="AET17" s="0"/>
+      <c r="AEU17" s="0"/>
+      <c r="AEV17" s="0"/>
+      <c r="AEW17" s="0"/>
+      <c r="AEX17" s="0"/>
+      <c r="AEY17" s="0"/>
+      <c r="AEZ17" s="0"/>
+      <c r="AFA17" s="0"/>
+      <c r="AFB17" s="0"/>
+      <c r="AFC17" s="0"/>
+      <c r="AFD17" s="0"/>
+      <c r="AFE17" s="0"/>
+      <c r="AFF17" s="0"/>
+      <c r="AFG17" s="0"/>
+      <c r="AFH17" s="0"/>
+      <c r="AFI17" s="0"/>
+      <c r="AFJ17" s="0"/>
+      <c r="AFK17" s="0"/>
+      <c r="AFL17" s="0"/>
+      <c r="AFM17" s="0"/>
+      <c r="AFN17" s="0"/>
+      <c r="AFO17" s="0"/>
+      <c r="AFP17" s="0"/>
+      <c r="AFQ17" s="0"/>
+      <c r="AFR17" s="0"/>
+      <c r="AFS17" s="0"/>
+      <c r="AFT17" s="0"/>
+      <c r="AFU17" s="0"/>
+      <c r="AFV17" s="0"/>
+      <c r="AFW17" s="0"/>
+      <c r="AFX17" s="0"/>
+      <c r="AFY17" s="0"/>
+      <c r="AFZ17" s="0"/>
+      <c r="AGA17" s="0"/>
+      <c r="AGB17" s="0"/>
+      <c r="AGC17" s="0"/>
+      <c r="AGD17" s="0"/>
+      <c r="AGE17" s="0"/>
+      <c r="AGF17" s="0"/>
+      <c r="AGG17" s="0"/>
+      <c r="AGH17" s="0"/>
+      <c r="AGI17" s="0"/>
+      <c r="AGJ17" s="0"/>
+      <c r="AGK17" s="0"/>
+      <c r="AGL17" s="0"/>
+      <c r="AGM17" s="0"/>
+      <c r="AGN17" s="0"/>
+      <c r="AGO17" s="0"/>
+      <c r="AGP17" s="0"/>
+      <c r="AGQ17" s="0"/>
+      <c r="AGR17" s="0"/>
+      <c r="AGS17" s="0"/>
+      <c r="AGT17" s="0"/>
+      <c r="AGU17" s="0"/>
+      <c r="AGV17" s="0"/>
+      <c r="AGW17" s="0"/>
+      <c r="AGX17" s="0"/>
+      <c r="AGY17" s="0"/>
+      <c r="AGZ17" s="0"/>
+      <c r="AHA17" s="0"/>
+      <c r="AHB17" s="0"/>
+      <c r="AHC17" s="0"/>
+      <c r="AHD17" s="0"/>
+      <c r="AHE17" s="0"/>
+      <c r="AHF17" s="0"/>
+      <c r="AHG17" s="0"/>
+      <c r="AHH17" s="0"/>
+      <c r="AHI17" s="0"/>
+      <c r="AHJ17" s="0"/>
+      <c r="AHK17" s="0"/>
+      <c r="AHL17" s="0"/>
+      <c r="AHM17" s="0"/>
+      <c r="AHN17" s="0"/>
+      <c r="AHO17" s="0"/>
+      <c r="AHP17" s="0"/>
+      <c r="AHQ17" s="0"/>
+      <c r="AHR17" s="0"/>
+      <c r="AHS17" s="0"/>
+      <c r="AHT17" s="0"/>
+      <c r="AHU17" s="0"/>
+      <c r="AHV17" s="0"/>
+      <c r="AHW17" s="0"/>
+      <c r="AHX17" s="0"/>
+      <c r="AHY17" s="0"/>
+      <c r="AHZ17" s="0"/>
+      <c r="AIA17" s="0"/>
+      <c r="AIB17" s="0"/>
+      <c r="AIC17" s="0"/>
+      <c r="AID17" s="0"/>
+      <c r="AIE17" s="0"/>
+      <c r="AIF17" s="0"/>
+      <c r="AIG17" s="0"/>
+      <c r="AIH17" s="0"/>
+      <c r="AII17" s="0"/>
+      <c r="AIJ17" s="0"/>
+      <c r="AIK17" s="0"/>
+      <c r="AIL17" s="0"/>
+      <c r="AIM17" s="0"/>
+      <c r="AIN17" s="0"/>
+      <c r="AIO17" s="0"/>
+      <c r="AIP17" s="0"/>
+      <c r="AIQ17" s="0"/>
+      <c r="AIR17" s="0"/>
+      <c r="AIS17" s="0"/>
+      <c r="AIT17" s="0"/>
+      <c r="AIU17" s="0"/>
+      <c r="AIV17" s="0"/>
+      <c r="AIW17" s="0"/>
+      <c r="AIX17" s="0"/>
+      <c r="AIY17" s="0"/>
+      <c r="AIZ17" s="0"/>
+      <c r="AJA17" s="0"/>
+      <c r="AJB17" s="0"/>
+      <c r="AJC17" s="0"/>
+      <c r="AJD17" s="0"/>
+      <c r="AJE17" s="0"/>
+      <c r="AJF17" s="0"/>
+      <c r="AJG17" s="0"/>
+      <c r="AJH17" s="0"/>
+      <c r="AJI17" s="0"/>
+      <c r="AJJ17" s="0"/>
+      <c r="AJK17" s="0"/>
+      <c r="AJL17" s="0"/>
+      <c r="AJM17" s="0"/>
+      <c r="AJN17" s="0"/>
+      <c r="AJO17" s="0"/>
+      <c r="AJP17" s="0"/>
+      <c r="AJQ17" s="0"/>
+      <c r="AJR17" s="0"/>
+      <c r="AJS17" s="0"/>
+      <c r="AJT17" s="0"/>
+      <c r="AJU17" s="0"/>
+      <c r="AJV17" s="0"/>
+      <c r="AJW17" s="0"/>
+      <c r="AJX17" s="0"/>
+      <c r="AJY17" s="0"/>
+      <c r="AJZ17" s="0"/>
+      <c r="AKA17" s="0"/>
+      <c r="AKB17" s="0"/>
+      <c r="AKC17" s="0"/>
+      <c r="AKD17" s="0"/>
+      <c r="AKE17" s="0"/>
+      <c r="AKF17" s="0"/>
+      <c r="AKG17" s="0"/>
+      <c r="AKH17" s="0"/>
+      <c r="AKI17" s="0"/>
+      <c r="AKJ17" s="0"/>
+      <c r="AKK17" s="0"/>
+      <c r="AKL17" s="0"/>
+      <c r="AKM17" s="0"/>
+      <c r="AKN17" s="0"/>
+      <c r="AKO17" s="0"/>
+      <c r="AKP17" s="0"/>
+      <c r="AKQ17" s="0"/>
+      <c r="AKR17" s="0"/>
+      <c r="AKS17" s="0"/>
+      <c r="AKT17" s="0"/>
+      <c r="AKU17" s="0"/>
+      <c r="AKV17" s="0"/>
+      <c r="AKW17" s="0"/>
+      <c r="AKX17" s="0"/>
+      <c r="AKY17" s="0"/>
+      <c r="AKZ17" s="0"/>
+      <c r="ALA17" s="0"/>
+      <c r="ALB17" s="0"/>
+      <c r="ALC17" s="0"/>
+      <c r="ALD17" s="0"/>
+      <c r="ALE17" s="0"/>
+      <c r="ALF17" s="0"/>
+      <c r="ALG17" s="0"/>
+      <c r="ALH17" s="0"/>
+      <c r="ALI17" s="0"/>
+      <c r="ALJ17" s="0"/>
+      <c r="ALK17" s="0"/>
+      <c r="ALL17" s="0"/>
+      <c r="ALM17" s="0"/>
+      <c r="ALN17" s="0"/>
+      <c r="ALO17" s="0"/>
+      <c r="ALP17" s="0"/>
+      <c r="ALQ17" s="0"/>
+      <c r="ALR17" s="0"/>
+      <c r="ALS17" s="0"/>
+      <c r="ALT17" s="0"/>
+      <c r="ALU17" s="0"/>
+      <c r="ALV17" s="0"/>
+      <c r="ALW17" s="0"/>
+      <c r="ALX17" s="0"/>
+      <c r="ALY17" s="0"/>
+      <c r="ALZ17" s="0"/>
+      <c r="AMA17" s="0"/>
+      <c r="AMB17" s="0"/>
+      <c r="AMC17" s="0"/>
+      <c r="AMD17" s="0"/>
+      <c r="AME17" s="0"/>
+      <c r="AMF17" s="0"/>
+      <c r="AMG17" s="0"/>
+      <c r="AMH17" s="0"/>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="15" t="s">
+      <c r="B18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="18" t="n">
-        <v>43182</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>62</v>
+      <c r="F18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="24" t="n">
+        <v>43335</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="B19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="18" t="n">
-        <v>43210</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="F19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>66</v>
+      <c r="G19" s="24" t="n">
+        <v>43335</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="15" t="s">
+      <c r="B20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="18" t="n">
-        <v>43210</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>70</v>
+      <c r="F20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="24" t="n">
+        <v>43363</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="18" t="n">
-        <v>43210</v>
-      </c>
-      <c r="H21" s="15" t="s">
+      <c r="B21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>74</v>
+      <c r="G21" s="24" t="n">
+        <v>43363</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="18" t="n">
-        <v>43217</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>78</v>
+      <c r="B22" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="24" t="n">
+        <v>43363</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="B23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="18" t="n">
-        <v>43217</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>82</v>
+      <c r="F23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="24" t="n">
+        <v>43370</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="15" t="s">
+      <c r="B24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="18" t="n">
-        <v>43217</v>
-      </c>
-      <c r="H24" s="15" t="s">
+      <c r="F24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>86</v>
+      <c r="G24" s="24" t="n">
+        <v>43370</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="18" t="n">
-        <v>43224</v>
-      </c>
-      <c r="H25" s="15" t="s">
+      <c r="B25" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>90</v>
+      <c r="G25" s="24" t="n">
+        <v>43370</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="15" t="s">
+      <c r="B26" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="18" t="n">
-        <v>43224</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>94</v>
+      <c r="F26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="24" t="n">
+        <v>43377</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="18" t="n">
-        <v>43226</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="B27" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>98</v>
+      <c r="G27" s="24" t="n">
+        <v>43377</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="18" t="n">
-        <v>43226</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>102</v>
-      </c>
+      <c r="A28" s="0"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="0"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
+      <c r="X28" s="0"/>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
+      <c r="AD28" s="0"/>
+      <c r="AE28" s="0"/>
+      <c r="AF28" s="0"/>
+      <c r="AG28" s="0"/>
+      <c r="AH28" s="0"/>
+      <c r="AI28" s="0"/>
+      <c r="AJ28" s="0"/>
+      <c r="AK28" s="0"/>
+      <c r="AL28" s="0"/>
+      <c r="AM28" s="0"/>
+      <c r="AN28" s="0"/>
+      <c r="AO28" s="0"/>
+      <c r="AP28" s="0"/>
+      <c r="AQ28" s="0"/>
+      <c r="AR28" s="0"/>
+      <c r="AS28" s="0"/>
+      <c r="AT28" s="0"/>
+      <c r="AU28" s="0"/>
+      <c r="AV28" s="0"/>
+      <c r="AW28" s="0"/>
+      <c r="AX28" s="0"/>
+      <c r="AY28" s="0"/>
+      <c r="AZ28" s="0"/>
+      <c r="BA28" s="0"/>
+      <c r="BB28" s="0"/>
+      <c r="BC28" s="0"/>
+      <c r="BD28" s="0"/>
+      <c r="BE28" s="0"/>
+      <c r="BF28" s="0"/>
+      <c r="BG28" s="0"/>
+      <c r="BH28" s="0"/>
+      <c r="BI28" s="0"/>
+      <c r="BJ28" s="0"/>
+      <c r="BK28" s="0"/>
+      <c r="BL28" s="0"/>
+      <c r="BM28" s="0"/>
+      <c r="BN28" s="0"/>
+      <c r="BO28" s="0"/>
+      <c r="BP28" s="0"/>
+      <c r="BQ28" s="0"/>
+      <c r="BR28" s="0"/>
+      <c r="BS28" s="0"/>
+      <c r="BT28" s="0"/>
+      <c r="BU28" s="0"/>
+      <c r="BV28" s="0"/>
+      <c r="BW28" s="0"/>
+      <c r="BX28" s="0"/>
+      <c r="BY28" s="0"/>
+      <c r="BZ28" s="0"/>
+      <c r="CA28" s="0"/>
+      <c r="CB28" s="0"/>
+      <c r="CC28" s="0"/>
+      <c r="CD28" s="0"/>
+      <c r="CE28" s="0"/>
+      <c r="CF28" s="0"/>
+      <c r="CG28" s="0"/>
+      <c r="CH28" s="0"/>
+      <c r="CI28" s="0"/>
+      <c r="CJ28" s="0"/>
+      <c r="CK28" s="0"/>
+      <c r="CL28" s="0"/>
+      <c r="CM28" s="0"/>
+      <c r="CN28" s="0"/>
+      <c r="CO28" s="0"/>
+      <c r="CP28" s="0"/>
+      <c r="CQ28" s="0"/>
+      <c r="CR28" s="0"/>
+      <c r="CS28" s="0"/>
+      <c r="CT28" s="0"/>
+      <c r="CU28" s="0"/>
+      <c r="CV28" s="0"/>
+      <c r="CW28" s="0"/>
+      <c r="CX28" s="0"/>
+      <c r="CY28" s="0"/>
+      <c r="CZ28" s="0"/>
+      <c r="DA28" s="0"/>
+      <c r="DB28" s="0"/>
+      <c r="DC28" s="0"/>
+      <c r="DD28" s="0"/>
+      <c r="DE28" s="0"/>
+      <c r="DF28" s="0"/>
+      <c r="DG28" s="0"/>
+      <c r="DH28" s="0"/>
+      <c r="DI28" s="0"/>
+      <c r="DJ28" s="0"/>
+      <c r="DK28" s="0"/>
+      <c r="DL28" s="0"/>
+      <c r="DM28" s="0"/>
+      <c r="DN28" s="0"/>
+      <c r="DO28" s="0"/>
+      <c r="DP28" s="0"/>
+      <c r="DQ28" s="0"/>
+      <c r="DR28" s="0"/>
+      <c r="DS28" s="0"/>
+      <c r="DT28" s="0"/>
+      <c r="DU28" s="0"/>
+      <c r="DV28" s="0"/>
+      <c r="DW28" s="0"/>
+      <c r="DX28" s="0"/>
+      <c r="DY28" s="0"/>
+      <c r="DZ28" s="0"/>
+      <c r="EA28" s="0"/>
+      <c r="EB28" s="0"/>
+      <c r="EC28" s="0"/>
+      <c r="ED28" s="0"/>
+      <c r="EE28" s="0"/>
+      <c r="EF28" s="0"/>
+      <c r="EG28" s="0"/>
+      <c r="EH28" s="0"/>
+      <c r="EI28" s="0"/>
+      <c r="EJ28" s="0"/>
+      <c r="EK28" s="0"/>
+      <c r="EL28" s="0"/>
+      <c r="EM28" s="0"/>
+      <c r="EN28" s="0"/>
+      <c r="EO28" s="0"/>
+      <c r="EP28" s="0"/>
+      <c r="EQ28" s="0"/>
+      <c r="ER28" s="0"/>
+      <c r="ES28" s="0"/>
+      <c r="ET28" s="0"/>
+      <c r="EU28" s="0"/>
+      <c r="EV28" s="0"/>
+      <c r="EW28" s="0"/>
+      <c r="EX28" s="0"/>
+      <c r="EY28" s="0"/>
+      <c r="EZ28" s="0"/>
+      <c r="FA28" s="0"/>
+      <c r="FB28" s="0"/>
+      <c r="FC28" s="0"/>
+      <c r="FD28" s="0"/>
+      <c r="FE28" s="0"/>
+      <c r="FF28" s="0"/>
+      <c r="FG28" s="0"/>
+      <c r="FH28" s="0"/>
+      <c r="FI28" s="0"/>
+      <c r="FJ28" s="0"/>
+      <c r="FK28" s="0"/>
+      <c r="FL28" s="0"/>
+      <c r="FM28" s="0"/>
+      <c r="FN28" s="0"/>
+      <c r="FO28" s="0"/>
+      <c r="FP28" s="0"/>
+      <c r="FQ28" s="0"/>
+      <c r="FR28" s="0"/>
+      <c r="FS28" s="0"/>
+      <c r="FT28" s="0"/>
+      <c r="FU28" s="0"/>
+      <c r="FV28" s="0"/>
+      <c r="FW28" s="0"/>
+      <c r="FX28" s="0"/>
+      <c r="FY28" s="0"/>
+      <c r="FZ28" s="0"/>
+      <c r="GA28" s="0"/>
+      <c r="GB28" s="0"/>
+      <c r="GC28" s="0"/>
+      <c r="GD28" s="0"/>
+      <c r="GE28" s="0"/>
+      <c r="GF28" s="0"/>
+      <c r="GG28" s="0"/>
+      <c r="GH28" s="0"/>
+      <c r="GI28" s="0"/>
+      <c r="GJ28" s="0"/>
+      <c r="GK28" s="0"/>
+      <c r="GL28" s="0"/>
+      <c r="GM28" s="0"/>
+      <c r="GN28" s="0"/>
+      <c r="GO28" s="0"/>
+      <c r="GP28" s="0"/>
+      <c r="GQ28" s="0"/>
+      <c r="GR28" s="0"/>
+      <c r="GS28" s="0"/>
+      <c r="GT28" s="0"/>
+      <c r="GU28" s="0"/>
+      <c r="GV28" s="0"/>
+      <c r="GW28" s="0"/>
+      <c r="GX28" s="0"/>
+      <c r="GY28" s="0"/>
+      <c r="GZ28" s="0"/>
+      <c r="HA28" s="0"/>
+      <c r="HB28" s="0"/>
+      <c r="HC28" s="0"/>
+      <c r="HD28" s="0"/>
+      <c r="HE28" s="0"/>
+      <c r="HF28" s="0"/>
+      <c r="HG28" s="0"/>
+      <c r="HH28" s="0"/>
+      <c r="HI28" s="0"/>
+      <c r="HJ28" s="0"/>
+      <c r="HK28" s="0"/>
+      <c r="HL28" s="0"/>
+      <c r="HM28" s="0"/>
+      <c r="HN28" s="0"/>
+      <c r="HO28" s="0"/>
+      <c r="HP28" s="0"/>
+      <c r="HQ28" s="0"/>
+      <c r="HR28" s="0"/>
+      <c r="HS28" s="0"/>
+      <c r="HT28" s="0"/>
+      <c r="HU28" s="0"/>
+      <c r="HV28" s="0"/>
+      <c r="HW28" s="0"/>
+      <c r="HX28" s="0"/>
+      <c r="HY28" s="0"/>
+      <c r="HZ28" s="0"/>
+      <c r="IA28" s="0"/>
+      <c r="IB28" s="0"/>
+      <c r="IC28" s="0"/>
+      <c r="ID28" s="0"/>
+      <c r="IE28" s="0"/>
+      <c r="IF28" s="0"/>
+      <c r="IG28" s="0"/>
+      <c r="IH28" s="0"/>
+      <c r="II28" s="0"/>
+      <c r="IJ28" s="0"/>
+      <c r="IK28" s="0"/>
+      <c r="IL28" s="0"/>
+      <c r="IM28" s="0"/>
+      <c r="IN28" s="0"/>
+      <c r="IO28" s="0"/>
+      <c r="IP28" s="0"/>
+      <c r="IQ28" s="0"/>
+      <c r="IR28" s="0"/>
+      <c r="IS28" s="0"/>
+      <c r="IT28" s="0"/>
+      <c r="IU28" s="0"/>
+      <c r="IV28" s="0"/>
+      <c r="IW28" s="0"/>
+      <c r="IX28" s="0"/>
+      <c r="IY28" s="0"/>
+      <c r="IZ28" s="0"/>
+      <c r="JA28" s="0"/>
+      <c r="JB28" s="0"/>
+      <c r="JC28" s="0"/>
+      <c r="JD28" s="0"/>
+      <c r="JE28" s="0"/>
+      <c r="JF28" s="0"/>
+      <c r="JG28" s="0"/>
+      <c r="JH28" s="0"/>
+      <c r="JI28" s="0"/>
+      <c r="JJ28" s="0"/>
+      <c r="JK28" s="0"/>
+      <c r="JL28" s="0"/>
+      <c r="JM28" s="0"/>
+      <c r="JN28" s="0"/>
+      <c r="JO28" s="0"/>
+      <c r="JP28" s="0"/>
+      <c r="JQ28" s="0"/>
+      <c r="JR28" s="0"/>
+      <c r="JS28" s="0"/>
+      <c r="JT28" s="0"/>
+      <c r="JU28" s="0"/>
+      <c r="JV28" s="0"/>
+      <c r="JW28" s="0"/>
+      <c r="JX28" s="0"/>
+      <c r="JY28" s="0"/>
+      <c r="JZ28" s="0"/>
+      <c r="KA28" s="0"/>
+      <c r="KB28" s="0"/>
+      <c r="KC28" s="0"/>
+      <c r="KD28" s="0"/>
+      <c r="KE28" s="0"/>
+      <c r="KF28" s="0"/>
+      <c r="KG28" s="0"/>
+      <c r="KH28" s="0"/>
+      <c r="KI28" s="0"/>
+      <c r="KJ28" s="0"/>
+      <c r="KK28" s="0"/>
+      <c r="KL28" s="0"/>
+      <c r="KM28" s="0"/>
+      <c r="KN28" s="0"/>
+      <c r="KO28" s="0"/>
+      <c r="KP28" s="0"/>
+      <c r="KQ28" s="0"/>
+      <c r="KR28" s="0"/>
+      <c r="KS28" s="0"/>
+      <c r="KT28" s="0"/>
+      <c r="KU28" s="0"/>
+      <c r="KV28" s="0"/>
+      <c r="KW28" s="0"/>
+      <c r="KX28" s="0"/>
+      <c r="KY28" s="0"/>
+      <c r="KZ28" s="0"/>
+      <c r="LA28" s="0"/>
+      <c r="LB28" s="0"/>
+      <c r="LC28" s="0"/>
+      <c r="LD28" s="0"/>
+      <c r="LE28" s="0"/>
+      <c r="LF28" s="0"/>
+      <c r="LG28" s="0"/>
+      <c r="LH28" s="0"/>
+      <c r="LI28" s="0"/>
+      <c r="LJ28" s="0"/>
+      <c r="LK28" s="0"/>
+      <c r="LL28" s="0"/>
+      <c r="LM28" s="0"/>
+      <c r="LN28" s="0"/>
+      <c r="LO28" s="0"/>
+      <c r="LP28" s="0"/>
+      <c r="LQ28" s="0"/>
+      <c r="LR28" s="0"/>
+      <c r="LS28" s="0"/>
+      <c r="LT28" s="0"/>
+      <c r="LU28" s="0"/>
+      <c r="LV28" s="0"/>
+      <c r="LW28" s="0"/>
+      <c r="LX28" s="0"/>
+      <c r="LY28" s="0"/>
+      <c r="LZ28" s="0"/>
+      <c r="MA28" s="0"/>
+      <c r="MB28" s="0"/>
+      <c r="MC28" s="0"/>
+      <c r="MD28" s="0"/>
+      <c r="ME28" s="0"/>
+      <c r="MF28" s="0"/>
+      <c r="MG28" s="0"/>
+      <c r="MH28" s="0"/>
+      <c r="MI28" s="0"/>
+      <c r="MJ28" s="0"/>
+      <c r="MK28" s="0"/>
+      <c r="ML28" s="0"/>
+      <c r="MM28" s="0"/>
+      <c r="MN28" s="0"/>
+      <c r="MO28" s="0"/>
+      <c r="MP28" s="0"/>
+      <c r="MQ28" s="0"/>
+      <c r="MR28" s="0"/>
+      <c r="MS28" s="0"/>
+      <c r="MT28" s="0"/>
+      <c r="MU28" s="0"/>
+      <c r="MV28" s="0"/>
+      <c r="MW28" s="0"/>
+      <c r="MX28" s="0"/>
+      <c r="MY28" s="0"/>
+      <c r="MZ28" s="0"/>
+      <c r="NA28" s="0"/>
+      <c r="NB28" s="0"/>
+      <c r="NC28" s="0"/>
+      <c r="ND28" s="0"/>
+      <c r="NE28" s="0"/>
+      <c r="NF28" s="0"/>
+      <c r="NG28" s="0"/>
+      <c r="NH28" s="0"/>
+      <c r="NI28" s="0"/>
+      <c r="NJ28" s="0"/>
+      <c r="NK28" s="0"/>
+      <c r="NL28" s="0"/>
+      <c r="NM28" s="0"/>
+      <c r="NN28" s="0"/>
+      <c r="NO28" s="0"/>
+      <c r="NP28" s="0"/>
+      <c r="NQ28" s="0"/>
+      <c r="NR28" s="0"/>
+      <c r="NS28" s="0"/>
+      <c r="NT28" s="0"/>
+      <c r="NU28" s="0"/>
+      <c r="NV28" s="0"/>
+      <c r="NW28" s="0"/>
+      <c r="NX28" s="0"/>
+      <c r="NY28" s="0"/>
+      <c r="NZ28" s="0"/>
+      <c r="OA28" s="0"/>
+      <c r="OB28" s="0"/>
+      <c r="OC28" s="0"/>
+      <c r="OD28" s="0"/>
+      <c r="OE28" s="0"/>
+      <c r="OF28" s="0"/>
+      <c r="OG28" s="0"/>
+      <c r="OH28" s="0"/>
+      <c r="OI28" s="0"/>
+      <c r="OJ28" s="0"/>
+      <c r="OK28" s="0"/>
+      <c r="OL28" s="0"/>
+      <c r="OM28" s="0"/>
+      <c r="ON28" s="0"/>
+      <c r="OO28" s="0"/>
+      <c r="OP28" s="0"/>
+      <c r="OQ28" s="0"/>
+      <c r="OR28" s="0"/>
+      <c r="OS28" s="0"/>
+      <c r="OT28" s="0"/>
+      <c r="OU28" s="0"/>
+      <c r="OV28" s="0"/>
+      <c r="OW28" s="0"/>
+      <c r="OX28" s="0"/>
+      <c r="OY28" s="0"/>
+      <c r="OZ28" s="0"/>
+      <c r="PA28" s="0"/>
+      <c r="PB28" s="0"/>
+      <c r="PC28" s="0"/>
+      <c r="PD28" s="0"/>
+      <c r="PE28" s="0"/>
+      <c r="PF28" s="0"/>
+      <c r="PG28" s="0"/>
+      <c r="PH28" s="0"/>
+      <c r="PI28" s="0"/>
+      <c r="PJ28" s="0"/>
+      <c r="PK28" s="0"/>
+      <c r="PL28" s="0"/>
+      <c r="PM28" s="0"/>
+      <c r="PN28" s="0"/>
+      <c r="PO28" s="0"/>
+      <c r="PP28" s="0"/>
+      <c r="PQ28" s="0"/>
+      <c r="PR28" s="0"/>
+      <c r="PS28" s="0"/>
+      <c r="PT28" s="0"/>
+      <c r="PU28" s="0"/>
+      <c r="PV28" s="0"/>
+      <c r="PW28" s="0"/>
+      <c r="PX28" s="0"/>
+      <c r="PY28" s="0"/>
+      <c r="PZ28" s="0"/>
+      <c r="QA28" s="0"/>
+      <c r="QB28" s="0"/>
+      <c r="QC28" s="0"/>
+      <c r="QD28" s="0"/>
+      <c r="QE28" s="0"/>
+      <c r="QF28" s="0"/>
+      <c r="QG28" s="0"/>
+      <c r="QH28" s="0"/>
+      <c r="QI28" s="0"/>
+      <c r="QJ28" s="0"/>
+      <c r="QK28" s="0"/>
+      <c r="QL28" s="0"/>
+      <c r="QM28" s="0"/>
+      <c r="QN28" s="0"/>
+      <c r="QO28" s="0"/>
+      <c r="QP28" s="0"/>
+      <c r="QQ28" s="0"/>
+      <c r="QR28" s="0"/>
+      <c r="QS28" s="0"/>
+      <c r="QT28" s="0"/>
+      <c r="QU28" s="0"/>
+      <c r="QV28" s="0"/>
+      <c r="QW28" s="0"/>
+      <c r="QX28" s="0"/>
+      <c r="QY28" s="0"/>
+      <c r="QZ28" s="0"/>
+      <c r="RA28" s="0"/>
+      <c r="RB28" s="0"/>
+      <c r="RC28" s="0"/>
+      <c r="RD28" s="0"/>
+      <c r="RE28" s="0"/>
+      <c r="RF28" s="0"/>
+      <c r="RG28" s="0"/>
+      <c r="RH28" s="0"/>
+      <c r="RI28" s="0"/>
+      <c r="RJ28" s="0"/>
+      <c r="RK28" s="0"/>
+      <c r="RL28" s="0"/>
+      <c r="RM28" s="0"/>
+      <c r="RN28" s="0"/>
+      <c r="RO28" s="0"/>
+      <c r="RP28" s="0"/>
+      <c r="RQ28" s="0"/>
+      <c r="RR28" s="0"/>
+      <c r="RS28" s="0"/>
+      <c r="RT28" s="0"/>
+      <c r="RU28" s="0"/>
+      <c r="RV28" s="0"/>
+      <c r="RW28" s="0"/>
+      <c r="RX28" s="0"/>
+      <c r="RY28" s="0"/>
+      <c r="RZ28" s="0"/>
+      <c r="SA28" s="0"/>
+      <c r="SB28" s="0"/>
+      <c r="SC28" s="0"/>
+      <c r="SD28" s="0"/>
+      <c r="SE28" s="0"/>
+      <c r="SF28" s="0"/>
+      <c r="SG28" s="0"/>
+      <c r="SH28" s="0"/>
+      <c r="SI28" s="0"/>
+      <c r="SJ28" s="0"/>
+      <c r="SK28" s="0"/>
+      <c r="SL28" s="0"/>
+      <c r="SM28" s="0"/>
+      <c r="SN28" s="0"/>
+      <c r="SO28" s="0"/>
+      <c r="SP28" s="0"/>
+      <c r="SQ28" s="0"/>
+      <c r="SR28" s="0"/>
+      <c r="SS28" s="0"/>
+      <c r="ST28" s="0"/>
+      <c r="SU28" s="0"/>
+      <c r="SV28" s="0"/>
+      <c r="SW28" s="0"/>
+      <c r="SX28" s="0"/>
+      <c r="SY28" s="0"/>
+      <c r="SZ28" s="0"/>
+      <c r="TA28" s="0"/>
+      <c r="TB28" s="0"/>
+      <c r="TC28" s="0"/>
+      <c r="TD28" s="0"/>
+      <c r="TE28" s="0"/>
+      <c r="TF28" s="0"/>
+      <c r="TG28" s="0"/>
+      <c r="TH28" s="0"/>
+      <c r="TI28" s="0"/>
+      <c r="TJ28" s="0"/>
+      <c r="TK28" s="0"/>
+      <c r="TL28" s="0"/>
+      <c r="TM28" s="0"/>
+      <c r="TN28" s="0"/>
+      <c r="TO28" s="0"/>
+      <c r="TP28" s="0"/>
+      <c r="TQ28" s="0"/>
+      <c r="TR28" s="0"/>
+      <c r="TS28" s="0"/>
+      <c r="TT28" s="0"/>
+      <c r="TU28" s="0"/>
+      <c r="TV28" s="0"/>
+      <c r="TW28" s="0"/>
+      <c r="TX28" s="0"/>
+      <c r="TY28" s="0"/>
+      <c r="TZ28" s="0"/>
+      <c r="UA28" s="0"/>
+      <c r="UB28" s="0"/>
+      <c r="UC28" s="0"/>
+      <c r="UD28" s="0"/>
+      <c r="UE28" s="0"/>
+      <c r="UF28" s="0"/>
+      <c r="UG28" s="0"/>
+      <c r="UH28" s="0"/>
+      <c r="UI28" s="0"/>
+      <c r="UJ28" s="0"/>
+      <c r="UK28" s="0"/>
+      <c r="UL28" s="0"/>
+      <c r="UM28" s="0"/>
+      <c r="UN28" s="0"/>
+      <c r="UO28" s="0"/>
+      <c r="UP28" s="0"/>
+      <c r="UQ28" s="0"/>
+      <c r="UR28" s="0"/>
+      <c r="US28" s="0"/>
+      <c r="UT28" s="0"/>
+      <c r="UU28" s="0"/>
+      <c r="UV28" s="0"/>
+      <c r="UW28" s="0"/>
+      <c r="UX28" s="0"/>
+      <c r="UY28" s="0"/>
+      <c r="UZ28" s="0"/>
+      <c r="VA28" s="0"/>
+      <c r="VB28" s="0"/>
+      <c r="VC28" s="0"/>
+      <c r="VD28" s="0"/>
+      <c r="VE28" s="0"/>
+      <c r="VF28" s="0"/>
+      <c r="VG28" s="0"/>
+      <c r="VH28" s="0"/>
+      <c r="VI28" s="0"/>
+      <c r="VJ28" s="0"/>
+      <c r="VK28" s="0"/>
+      <c r="VL28" s="0"/>
+      <c r="VM28" s="0"/>
+      <c r="VN28" s="0"/>
+      <c r="VO28" s="0"/>
+      <c r="VP28" s="0"/>
+      <c r="VQ28" s="0"/>
+      <c r="VR28" s="0"/>
+      <c r="VS28" s="0"/>
+      <c r="VT28" s="0"/>
+      <c r="VU28" s="0"/>
+      <c r="VV28" s="0"/>
+      <c r="VW28" s="0"/>
+      <c r="VX28" s="0"/>
+      <c r="VY28" s="0"/>
+      <c r="VZ28" s="0"/>
+      <c r="WA28" s="0"/>
+      <c r="WB28" s="0"/>
+      <c r="WC28" s="0"/>
+      <c r="WD28" s="0"/>
+      <c r="WE28" s="0"/>
+      <c r="WF28" s="0"/>
+      <c r="WG28" s="0"/>
+      <c r="WH28" s="0"/>
+      <c r="WI28" s="0"/>
+      <c r="WJ28" s="0"/>
+      <c r="WK28" s="0"/>
+      <c r="WL28" s="0"/>
+      <c r="WM28" s="0"/>
+      <c r="WN28" s="0"/>
+      <c r="WO28" s="0"/>
+      <c r="WP28" s="0"/>
+      <c r="WQ28" s="0"/>
+      <c r="WR28" s="0"/>
+      <c r="WS28" s="0"/>
+      <c r="WT28" s="0"/>
+      <c r="WU28" s="0"/>
+      <c r="WV28" s="0"/>
+      <c r="WW28" s="0"/>
+      <c r="WX28" s="0"/>
+      <c r="WY28" s="0"/>
+      <c r="WZ28" s="0"/>
+      <c r="XA28" s="0"/>
+      <c r="XB28" s="0"/>
+      <c r="XC28" s="0"/>
+      <c r="XD28" s="0"/>
+      <c r="XE28" s="0"/>
+      <c r="XF28" s="0"/>
+      <c r="XG28" s="0"/>
+      <c r="XH28" s="0"/>
+      <c r="XI28" s="0"/>
+      <c r="XJ28" s="0"/>
+      <c r="XK28" s="0"/>
+      <c r="XL28" s="0"/>
+      <c r="XM28" s="0"/>
+      <c r="XN28" s="0"/>
+      <c r="XO28" s="0"/>
+      <c r="XP28" s="0"/>
+      <c r="XQ28" s="0"/>
+      <c r="XR28" s="0"/>
+      <c r="XS28" s="0"/>
+      <c r="XT28" s="0"/>
+      <c r="XU28" s="0"/>
+      <c r="XV28" s="0"/>
+      <c r="XW28" s="0"/>
+      <c r="XX28" s="0"/>
+      <c r="XY28" s="0"/>
+      <c r="XZ28" s="0"/>
+      <c r="YA28" s="0"/>
+      <c r="YB28" s="0"/>
+      <c r="YC28" s="0"/>
+      <c r="YD28" s="0"/>
+      <c r="YE28" s="0"/>
+      <c r="YF28" s="0"/>
+      <c r="YG28" s="0"/>
+      <c r="YH28" s="0"/>
+      <c r="YI28" s="0"/>
+      <c r="YJ28" s="0"/>
+      <c r="YK28" s="0"/>
+      <c r="YL28" s="0"/>
+      <c r="YM28" s="0"/>
+      <c r="YN28" s="0"/>
+      <c r="YO28" s="0"/>
+      <c r="YP28" s="0"/>
+      <c r="YQ28" s="0"/>
+      <c r="YR28" s="0"/>
+      <c r="YS28" s="0"/>
+      <c r="YT28" s="0"/>
+      <c r="YU28" s="0"/>
+      <c r="YV28" s="0"/>
+      <c r="YW28" s="0"/>
+      <c r="YX28" s="0"/>
+      <c r="YY28" s="0"/>
+      <c r="YZ28" s="0"/>
+      <c r="ZA28" s="0"/>
+      <c r="ZB28" s="0"/>
+      <c r="ZC28" s="0"/>
+      <c r="ZD28" s="0"/>
+      <c r="ZE28" s="0"/>
+      <c r="ZF28" s="0"/>
+      <c r="ZG28" s="0"/>
+      <c r="ZH28" s="0"/>
+      <c r="ZI28" s="0"/>
+      <c r="ZJ28" s="0"/>
+      <c r="ZK28" s="0"/>
+      <c r="ZL28" s="0"/>
+      <c r="ZM28" s="0"/>
+      <c r="ZN28" s="0"/>
+      <c r="ZO28" s="0"/>
+      <c r="ZP28" s="0"/>
+      <c r="ZQ28" s="0"/>
+      <c r="ZR28" s="0"/>
+      <c r="ZS28" s="0"/>
+      <c r="ZT28" s="0"/>
+      <c r="ZU28" s="0"/>
+      <c r="ZV28" s="0"/>
+      <c r="ZW28" s="0"/>
+      <c r="ZX28" s="0"/>
+      <c r="ZY28" s="0"/>
+      <c r="ZZ28" s="0"/>
+      <c r="AAA28" s="0"/>
+      <c r="AAB28" s="0"/>
+      <c r="AAC28" s="0"/>
+      <c r="AAD28" s="0"/>
+      <c r="AAE28" s="0"/>
+      <c r="AAF28" s="0"/>
+      <c r="AAG28" s="0"/>
+      <c r="AAH28" s="0"/>
+      <c r="AAI28" s="0"/>
+      <c r="AAJ28" s="0"/>
+      <c r="AAK28" s="0"/>
+      <c r="AAL28" s="0"/>
+      <c r="AAM28" s="0"/>
+      <c r="AAN28" s="0"/>
+      <c r="AAO28" s="0"/>
+      <c r="AAP28" s="0"/>
+      <c r="AAQ28" s="0"/>
+      <c r="AAR28" s="0"/>
+      <c r="AAS28" s="0"/>
+      <c r="AAT28" s="0"/>
+      <c r="AAU28" s="0"/>
+      <c r="AAV28" s="0"/>
+      <c r="AAW28" s="0"/>
+      <c r="AAX28" s="0"/>
+      <c r="AAY28" s="0"/>
+      <c r="AAZ28" s="0"/>
+      <c r="ABA28" s="0"/>
+      <c r="ABB28" s="0"/>
+      <c r="ABC28" s="0"/>
+      <c r="ABD28" s="0"/>
+      <c r="ABE28" s="0"/>
+      <c r="ABF28" s="0"/>
+      <c r="ABG28" s="0"/>
+      <c r="ABH28" s="0"/>
+      <c r="ABI28" s="0"/>
+      <c r="ABJ28" s="0"/>
+      <c r="ABK28" s="0"/>
+      <c r="ABL28" s="0"/>
+      <c r="ABM28" s="0"/>
+      <c r="ABN28" s="0"/>
+      <c r="ABO28" s="0"/>
+      <c r="ABP28" s="0"/>
+      <c r="ABQ28" s="0"/>
+      <c r="ABR28" s="0"/>
+      <c r="ABS28" s="0"/>
+      <c r="ABT28" s="0"/>
+      <c r="ABU28" s="0"/>
+      <c r="ABV28" s="0"/>
+      <c r="ABW28" s="0"/>
+      <c r="ABX28" s="0"/>
+      <c r="ABY28" s="0"/>
+      <c r="ABZ28" s="0"/>
+      <c r="ACA28" s="0"/>
+      <c r="ACB28" s="0"/>
+      <c r="ACC28" s="0"/>
+      <c r="ACD28" s="0"/>
+      <c r="ACE28" s="0"/>
+      <c r="ACF28" s="0"/>
+      <c r="ACG28" s="0"/>
+      <c r="ACH28" s="0"/>
+      <c r="ACI28" s="0"/>
+      <c r="ACJ28" s="0"/>
+      <c r="ACK28" s="0"/>
+      <c r="ACL28" s="0"/>
+      <c r="ACM28" s="0"/>
+      <c r="ACN28" s="0"/>
+      <c r="ACO28" s="0"/>
+      <c r="ACP28" s="0"/>
+      <c r="ACQ28" s="0"/>
+      <c r="ACR28" s="0"/>
+      <c r="ACS28" s="0"/>
+      <c r="ACT28" s="0"/>
+      <c r="ACU28" s="0"/>
+      <c r="ACV28" s="0"/>
+      <c r="ACW28" s="0"/>
+      <c r="ACX28" s="0"/>
+      <c r="ACY28" s="0"/>
+      <c r="ACZ28" s="0"/>
+      <c r="ADA28" s="0"/>
+      <c r="ADB28" s="0"/>
+      <c r="ADC28" s="0"/>
+      <c r="ADD28" s="0"/>
+      <c r="ADE28" s="0"/>
+      <c r="ADF28" s="0"/>
+      <c r="ADG28" s="0"/>
+      <c r="ADH28" s="0"/>
+      <c r="ADI28" s="0"/>
+      <c r="ADJ28" s="0"/>
+      <c r="ADK28" s="0"/>
+      <c r="ADL28" s="0"/>
+      <c r="ADM28" s="0"/>
+      <c r="ADN28" s="0"/>
+      <c r="ADO28" s="0"/>
+      <c r="ADP28" s="0"/>
+      <c r="ADQ28" s="0"/>
+      <c r="ADR28" s="0"/>
+      <c r="ADS28" s="0"/>
+      <c r="ADT28" s="0"/>
+      <c r="ADU28" s="0"/>
+      <c r="ADV28" s="0"/>
+      <c r="ADW28" s="0"/>
+      <c r="ADX28" s="0"/>
+      <c r="ADY28" s="0"/>
+      <c r="ADZ28" s="0"/>
+      <c r="AEA28" s="0"/>
+      <c r="AEB28" s="0"/>
+      <c r="AEC28" s="0"/>
+      <c r="AED28" s="0"/>
+      <c r="AEE28" s="0"/>
+      <c r="AEF28" s="0"/>
+      <c r="AEG28" s="0"/>
+      <c r="AEH28" s="0"/>
+      <c r="AEI28" s="0"/>
+      <c r="AEJ28" s="0"/>
+      <c r="AEK28" s="0"/>
+      <c r="AEL28" s="0"/>
+      <c r="AEM28" s="0"/>
+      <c r="AEN28" s="0"/>
+      <c r="AEO28" s="0"/>
+      <c r="AEP28" s="0"/>
+      <c r="AEQ28" s="0"/>
+      <c r="AER28" s="0"/>
+      <c r="AES28" s="0"/>
+      <c r="AET28" s="0"/>
+      <c r="AEU28" s="0"/>
+      <c r="AEV28" s="0"/>
+      <c r="AEW28" s="0"/>
+      <c r="AEX28" s="0"/>
+      <c r="AEY28" s="0"/>
+      <c r="AEZ28" s="0"/>
+      <c r="AFA28" s="0"/>
+      <c r="AFB28" s="0"/>
+      <c r="AFC28" s="0"/>
+      <c r="AFD28" s="0"/>
+      <c r="AFE28" s="0"/>
+      <c r="AFF28" s="0"/>
+      <c r="AFG28" s="0"/>
+      <c r="AFH28" s="0"/>
+      <c r="AFI28" s="0"/>
+      <c r="AFJ28" s="0"/>
+      <c r="AFK28" s="0"/>
+      <c r="AFL28" s="0"/>
+      <c r="AFM28" s="0"/>
+      <c r="AFN28" s="0"/>
+      <c r="AFO28" s="0"/>
+      <c r="AFP28" s="0"/>
+      <c r="AFQ28" s="0"/>
+      <c r="AFR28" s="0"/>
+      <c r="AFS28" s="0"/>
+      <c r="AFT28" s="0"/>
+      <c r="AFU28" s="0"/>
+      <c r="AFV28" s="0"/>
+      <c r="AFW28" s="0"/>
+      <c r="AFX28" s="0"/>
+      <c r="AFY28" s="0"/>
+      <c r="AFZ28" s="0"/>
+      <c r="AGA28" s="0"/>
+      <c r="AGB28" s="0"/>
+      <c r="AGC28" s="0"/>
+      <c r="AGD28" s="0"/>
+      <c r="AGE28" s="0"/>
+      <c r="AGF28" s="0"/>
+      <c r="AGG28" s="0"/>
+      <c r="AGH28" s="0"/>
+      <c r="AGI28" s="0"/>
+      <c r="AGJ28" s="0"/>
+      <c r="AGK28" s="0"/>
+      <c r="AGL28" s="0"/>
+      <c r="AGM28" s="0"/>
+      <c r="AGN28" s="0"/>
+      <c r="AGO28" s="0"/>
+      <c r="AGP28" s="0"/>
+      <c r="AGQ28" s="0"/>
+      <c r="AGR28" s="0"/>
+      <c r="AGS28" s="0"/>
+      <c r="AGT28" s="0"/>
+      <c r="AGU28" s="0"/>
+      <c r="AGV28" s="0"/>
+      <c r="AGW28" s="0"/>
+      <c r="AGX28" s="0"/>
+      <c r="AGY28" s="0"/>
+      <c r="AGZ28" s="0"/>
+      <c r="AHA28" s="0"/>
+      <c r="AHB28" s="0"/>
+      <c r="AHC28" s="0"/>
+      <c r="AHD28" s="0"/>
+      <c r="AHE28" s="0"/>
+      <c r="AHF28" s="0"/>
+      <c r="AHG28" s="0"/>
+      <c r="AHH28" s="0"/>
+      <c r="AHI28" s="0"/>
+      <c r="AHJ28" s="0"/>
+      <c r="AHK28" s="0"/>
+      <c r="AHL28" s="0"/>
+      <c r="AHM28" s="0"/>
+      <c r="AHN28" s="0"/>
+      <c r="AHO28" s="0"/>
+      <c r="AHP28" s="0"/>
+      <c r="AHQ28" s="0"/>
+      <c r="AHR28" s="0"/>
+      <c r="AHS28" s="0"/>
+      <c r="AHT28" s="0"/>
+      <c r="AHU28" s="0"/>
+      <c r="AHV28" s="0"/>
+      <c r="AHW28" s="0"/>
+      <c r="AHX28" s="0"/>
+      <c r="AHY28" s="0"/>
+      <c r="AHZ28" s="0"/>
+      <c r="AIA28" s="0"/>
+      <c r="AIB28" s="0"/>
+      <c r="AIC28" s="0"/>
+      <c r="AID28" s="0"/>
+      <c r="AIE28" s="0"/>
+      <c r="AIF28" s="0"/>
+      <c r="AIG28" s="0"/>
+      <c r="AIH28" s="0"/>
+      <c r="AII28" s="0"/>
+      <c r="AIJ28" s="0"/>
+      <c r="AIK28" s="0"/>
+      <c r="AIL28" s="0"/>
+      <c r="AIM28" s="0"/>
+      <c r="AIN28" s="0"/>
+      <c r="AIO28" s="0"/>
+      <c r="AIP28" s="0"/>
+      <c r="AIQ28" s="0"/>
+      <c r="AIR28" s="0"/>
+      <c r="AIS28" s="0"/>
+      <c r="AIT28" s="0"/>
+      <c r="AIU28" s="0"/>
+      <c r="AIV28" s="0"/>
+      <c r="AIW28" s="0"/>
+      <c r="AIX28" s="0"/>
+      <c r="AIY28" s="0"/>
+      <c r="AIZ28" s="0"/>
+      <c r="AJA28" s="0"/>
+      <c r="AJB28" s="0"/>
+      <c r="AJC28" s="0"/>
+      <c r="AJD28" s="0"/>
+      <c r="AJE28" s="0"/>
+      <c r="AJF28" s="0"/>
+      <c r="AJG28" s="0"/>
+      <c r="AJH28" s="0"/>
+      <c r="AJI28" s="0"/>
+      <c r="AJJ28" s="0"/>
+      <c r="AJK28" s="0"/>
+      <c r="AJL28" s="0"/>
+      <c r="AJM28" s="0"/>
+      <c r="AJN28" s="0"/>
+      <c r="AJO28" s="0"/>
+      <c r="AJP28" s="0"/>
+      <c r="AJQ28" s="0"/>
+      <c r="AJR28" s="0"/>
+      <c r="AJS28" s="0"/>
+      <c r="AJT28" s="0"/>
+      <c r="AJU28" s="0"/>
+      <c r="AJV28" s="0"/>
+      <c r="AJW28" s="0"/>
+      <c r="AJX28" s="0"/>
+      <c r="AJY28" s="0"/>
+      <c r="AJZ28" s="0"/>
+      <c r="AKA28" s="0"/>
+      <c r="AKB28" s="0"/>
+      <c r="AKC28" s="0"/>
+      <c r="AKD28" s="0"/>
+      <c r="AKE28" s="0"/>
+      <c r="AKF28" s="0"/>
+      <c r="AKG28" s="0"/>
+      <c r="AKH28" s="0"/>
+      <c r="AKI28" s="0"/>
+      <c r="AKJ28" s="0"/>
+      <c r="AKK28" s="0"/>
+      <c r="AKL28" s="0"/>
+      <c r="AKM28" s="0"/>
+      <c r="AKN28" s="0"/>
+      <c r="AKO28" s="0"/>
+      <c r="AKP28" s="0"/>
+      <c r="AKQ28" s="0"/>
+      <c r="AKR28" s="0"/>
+      <c r="AKS28" s="0"/>
+      <c r="AKT28" s="0"/>
+      <c r="AKU28" s="0"/>
+      <c r="AKV28" s="0"/>
+      <c r="AKW28" s="0"/>
+      <c r="AKX28" s="0"/>
+      <c r="AKY28" s="0"/>
+      <c r="AKZ28" s="0"/>
+      <c r="ALA28" s="0"/>
+      <c r="ALB28" s="0"/>
+      <c r="ALC28" s="0"/>
+      <c r="ALD28" s="0"/>
+      <c r="ALE28" s="0"/>
+      <c r="ALF28" s="0"/>
+      <c r="ALG28" s="0"/>
+      <c r="ALH28" s="0"/>
+      <c r="ALI28" s="0"/>
+      <c r="ALJ28" s="0"/>
+      <c r="ALK28" s="0"/>
+      <c r="ALL28" s="0"/>
+      <c r="ALM28" s="0"/>
+      <c r="ALN28" s="0"/>
+      <c r="ALO28" s="0"/>
+      <c r="ALP28" s="0"/>
+      <c r="ALQ28" s="0"/>
+      <c r="ALR28" s="0"/>
+      <c r="ALS28" s="0"/>
+      <c r="ALT28" s="0"/>
+      <c r="ALU28" s="0"/>
+      <c r="ALV28" s="0"/>
+      <c r="ALW28" s="0"/>
+      <c r="ALX28" s="0"/>
+      <c r="ALY28" s="0"/>
+      <c r="ALZ28" s="0"/>
+      <c r="AMA28" s="0"/>
+      <c r="AMB28" s="0"/>
+      <c r="AMC28" s="0"/>
+      <c r="AMD28" s="0"/>
+      <c r="AME28" s="0"/>
+      <c r="AMF28" s="0"/>
+      <c r="AMG28" s="0"/>
+      <c r="AMH28" s="0"/>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="18" t="n">
-        <v>43231</v>
-      </c>
-      <c r="H29" s="15" t="s">
+      <c r="B29" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="19" t="s">
-        <v>107</v>
+      <c r="G29" s="24" t="n">
+        <v>43379</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="24" t="n">
+        <v>43379</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="24" t="n">
+        <v>43384</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="D32" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="E32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="24" t="n">
+        <v>43384</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="18" t="n">
-        <v>43231</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>111</v>
-      </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C2"/>
@@ -7730,122 +10813,122 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.49797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.39271255060729"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.5141700404858"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="2.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.4615384615385"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="28"/>
+      <c r="B1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="10"/>
-      <c r="C3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="10"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="10"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>116</v>
+      <c r="B7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>117</v>
+      <c r="B8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>118</v>
+      <c r="B9" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>119</v>
+      <c r="B10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>120</v>
+      <c r="B11" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>121</v>
+      <c r="B12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>122</v>
+      <c r="B13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>123</v>
+      <c r="B14" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
